--- a/Files/Macro_raw_pivot.xlsx
+++ b/Files/Macro_raw_pivot.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
-  <si>
-    <t>Macro_Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>CHCPIY_ECI</t>
   </si>
@@ -785,126 +779,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B2">
+        <v>-0.8</v>
+      </c>
+      <c r="C2">
+        <v>2.8</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2">
+        <v>50.5</v>
+      </c>
+      <c r="H2">
+        <v>2.7</v>
+      </c>
+      <c r="J2">
+        <v>10.9</v>
+      </c>
+      <c r="K2">
+        <v>4.2</v>
+      </c>
+      <c r="M2">
+        <v>6.3</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>54.2</v>
+      </c>
+      <c r="P2">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B3">
+        <v>-0.9</v>
+      </c>
+      <c r="C3">
+        <v>2.8</v>
+      </c>
+      <c r="D3">
+        <v>48.2</v>
+      </c>
+      <c r="E3">
+        <v>3.2</v>
+      </c>
+      <c r="F3">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>2.7</v>
+      </c>
+      <c r="J3">
+        <v>11.1</v>
+      </c>
+      <c r="K3">
+        <v>3.7</v>
+      </c>
+      <c r="M3">
+        <v>6.2</v>
+      </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <v>53.3</v>
+      </c>
+      <c r="P3">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>2.8</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>50.6</v>
       </c>
       <c r="E4">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="F4">
-        <v>50.5</v>
+        <v>53.1</v>
       </c>
       <c r="H4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="K4">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
         <v>6.3</v>
       </c>
       <c r="N4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
-        <v>54.2</v>
+        <v>53.5</v>
       </c>
       <c r="P4">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -912,40 +963,40 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>2.8</v>
       </c>
       <c r="D5">
-        <v>48.2</v>
+        <v>46.5</v>
       </c>
       <c r="E5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J5">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="K5">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="N5">
         <v>0.2</v>
       </c>
       <c r="O5">
-        <v>53.3</v>
+        <v>55.2</v>
       </c>
       <c r="P5">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -956,34 +1007,34 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D6">
-        <v>50.6</v>
+        <v>45.8</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>50.4</v>
+      </c>
+      <c r="H6">
+        <v>2.4</v>
+      </c>
+      <c r="J6">
+        <v>11.4</v>
+      </c>
+      <c r="K6">
         <v>3.6</v>
       </c>
-      <c r="F6">
-        <v>53.1</v>
-      </c>
-      <c r="H6">
-        <v>2.7</v>
-      </c>
-      <c r="J6">
-        <v>11.2</v>
-      </c>
-      <c r="K6">
-        <v>3.7</v>
-      </c>
       <c r="M6">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="N6">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="O6">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="P6">
         <v>8.199999999999999</v>
@@ -994,37 +1045,37 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>46.5</v>
+        <v>47.9</v>
       </c>
       <c r="E7">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="F7">
-        <v>53.3</v>
+        <v>50.2</v>
       </c>
       <c r="H7">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J7">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="M7">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="N7">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O7">
-        <v>55.2</v>
+        <v>49.5</v>
       </c>
       <c r="P7">
         <v>8.199999999999999</v>
@@ -1035,37 +1086,37 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="C8">
         <v>2.9</v>
       </c>
       <c r="D8">
-        <v>45.8</v>
+        <v>46.6</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="F8">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="H8">
         <v>2.4</v>
       </c>
       <c r="J8">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="M8">
         <v>5.2</v>
       </c>
       <c r="N8">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>53.2</v>
+        <v>49.6</v>
       </c>
       <c r="P8">
         <v>8.199999999999999</v>
@@ -1076,40 +1127,40 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C9">
         <v>2.9</v>
       </c>
       <c r="D9">
-        <v>47.9</v>
+        <v>47.1</v>
       </c>
       <c r="E9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>50.2</v>
+        <v>49.2</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J9">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K9">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="M9">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="O9">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="P9">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1117,40 +1168,40 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>46.6</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F10">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="H10">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J10">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="K10">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="M10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10">
-        <v>49.6</v>
+        <v>50.8</v>
       </c>
       <c r="P10">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1158,40 +1209,40 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>47.1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F11">
-        <v>49.2</v>
+        <v>50.2</v>
       </c>
       <c r="H11">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="K11">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O11">
-        <v>49</v>
+        <v>50.5</v>
       </c>
       <c r="P11">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1205,34 +1256,34 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>49.2</v>
       </c>
       <c r="E12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>49.8</v>
+        <v>50.6</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N12">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O12">
-        <v>50.8</v>
+        <v>48</v>
       </c>
       <c r="P12">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1240,40 +1291,40 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>47.1</v>
+        <v>49.1</v>
       </c>
       <c r="E13">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="F13">
-        <v>50.2</v>
+        <v>50.6</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="J13">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M13">
         <v>5.1</v>
       </c>
       <c r="N13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>50.5</v>
+        <v>50.1</v>
       </c>
       <c r="P13">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1281,40 +1332,40 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D14">
-        <v>49.2</v>
+        <v>52.4</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>50.6</v>
+        <v>50.4</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K14">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="M14">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="O14">
-        <v>48</v>
+        <v>53.3</v>
       </c>
       <c r="P14">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1322,40 +1373,40 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D15">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="E15">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="F15">
-        <v>50.6</v>
+        <v>50.1</v>
       </c>
       <c r="H15">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K15">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="M15">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O15">
-        <v>50.1</v>
+        <v>54.2</v>
       </c>
       <c r="P15">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1363,40 +1414,40 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C16">
         <v>3.1</v>
       </c>
       <c r="D16">
-        <v>52.4</v>
+        <v>49.1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F16">
-        <v>50.4</v>
+        <v>50.9</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J16">
         <v>12.2</v>
       </c>
       <c r="K16">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="N16">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O16">
-        <v>53.3</v>
+        <v>51.9</v>
       </c>
       <c r="P16">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1404,40 +1455,40 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="C17">
         <v>3.1</v>
       </c>
       <c r="D17">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E17">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="F17">
-        <v>50.1</v>
+        <v>50.6</v>
       </c>
       <c r="H17">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J17">
         <v>12.2</v>
       </c>
       <c r="K17">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M17">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O17">
-        <v>54.2</v>
+        <v>51</v>
       </c>
       <c r="P17">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1445,37 +1496,37 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="C18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D18">
-        <v>49.1</v>
+        <v>52.4</v>
       </c>
       <c r="E18">
         <v>2.1</v>
       </c>
       <c r="F18">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="H18">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J18">
         <v>12.2</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="M18">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="N18">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>51.9</v>
+        <v>50.8</v>
       </c>
       <c r="P18">
         <v>7.5</v>
@@ -1486,40 +1537,40 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D19">
-        <v>49.4</v>
+        <v>51.5</v>
       </c>
       <c r="E19">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F19">
-        <v>50.6</v>
+        <v>50.1</v>
       </c>
       <c r="H19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="J19">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="K19">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="M19">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N19">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="O19">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="P19">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1527,40 +1578,40 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>3.2</v>
       </c>
       <c r="D20">
-        <v>52.4</v>
+        <v>55.5</v>
       </c>
       <c r="E20">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="F20">
-        <v>50.8</v>
+        <v>50.3</v>
       </c>
       <c r="H20">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J20">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="K20">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="M20">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O20">
-        <v>50.8</v>
+        <v>53.8</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1568,40 +1619,40 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>3.2</v>
       </c>
       <c r="D21">
-        <v>51.5</v>
+        <v>55.5</v>
       </c>
       <c r="E21">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="F21">
-        <v>50.1</v>
+        <v>51</v>
       </c>
       <c r="H21">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="J21">
         <v>12.1</v>
       </c>
       <c r="K21">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="M21">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="N21">
         <v>0.2</v>
       </c>
       <c r="O21">
-        <v>51.1</v>
+        <v>54</v>
       </c>
       <c r="P21">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1609,40 +1660,40 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C22">
         <v>3.2</v>
       </c>
       <c r="D22">
-        <v>55.5</v>
+        <v>56.5</v>
       </c>
       <c r="E22">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="F22">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="H22">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="J22">
         <v>12.1</v>
       </c>
       <c r="K22">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M22">
         <v>5.3</v>
       </c>
       <c r="N22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="P22">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1650,37 +1701,37 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C23">
         <v>3.2</v>
       </c>
       <c r="D23">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="F23">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="H23">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="J23">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="K23">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M23">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="N23">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O23">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="P23">
         <v>7.2</v>
@@ -1691,40 +1742,40 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="C24">
         <v>3.2</v>
       </c>
       <c r="D24">
-        <v>56.5</v>
+        <v>57.2</v>
       </c>
       <c r="E24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>51.1</v>
+        <v>51.4</v>
       </c>
       <c r="H24">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="J24">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="K24">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="M24">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O24">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="P24">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1732,40 +1783,40 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
         <v>3.2</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>53.7</v>
       </c>
       <c r="E25">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="F25">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="H25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J25">
         <v>12</v>
       </c>
       <c r="K25">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M25">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N25">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O25">
-        <v>54.6</v>
+        <v>56.5</v>
       </c>
       <c r="P25">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1776,37 +1827,37 @@
         <v>0.1</v>
       </c>
       <c r="C26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D26">
-        <v>57.2</v>
+        <v>56.3</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F26">
-        <v>51.4</v>
+        <v>50.5</v>
       </c>
       <c r="H26">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
       <c r="K26">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M26">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N26">
         <v>0.2</v>
       </c>
       <c r="O26">
-        <v>55.5</v>
+        <v>52.5</v>
       </c>
       <c r="P26">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1814,37 +1865,37 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D27">
-        <v>53.7</v>
+        <v>56.8</v>
       </c>
       <c r="E27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="H27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J27">
         <v>12</v>
       </c>
       <c r="K27">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="M27">
         <v>5.6</v>
       </c>
       <c r="N27">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O27">
-        <v>56.5</v>
+        <v>55</v>
       </c>
       <c r="P27">
         <v>6.7</v>
@@ -1855,40 +1906,40 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>3.1</v>
       </c>
       <c r="D28">
-        <v>56.3</v>
+        <v>54.1</v>
       </c>
       <c r="E28">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F28">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="H28">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K28">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="M28">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N28">
         <v>0.2</v>
       </c>
       <c r="O28">
-        <v>52.5</v>
+        <v>55.9</v>
       </c>
       <c r="P28">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1896,40 +1947,40 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>56.8</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F29">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="H29">
         <v>0.7</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="K29">
+        <v>7.3</v>
+      </c>
+      <c r="M29">
+        <v>5.3</v>
+      </c>
+      <c r="N29">
+        <v>0.2</v>
+      </c>
+      <c r="O29">
+        <v>56.6</v>
+      </c>
+      <c r="P29">
         <v>6.2</v>
-      </c>
-      <c r="M29">
-        <v>5.6</v>
-      </c>
-      <c r="N29">
-        <v>0.1</v>
-      </c>
-      <c r="O29">
-        <v>55</v>
-      </c>
-      <c r="P29">
-        <v>6.7</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1937,40 +1988,40 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="E30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F30">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="H30">
         <v>0.5</v>
       </c>
       <c r="J30">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="K30">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="M30">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="N30">
         <v>0.2</v>
       </c>
       <c r="O30">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="P30">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1984,34 +2035,34 @@
         <v>3</v>
       </c>
       <c r="D31">
+        <v>53.9</v>
+      </c>
+      <c r="E31">
+        <v>2.3</v>
+      </c>
+      <c r="F31">
+        <v>51</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>11.6</v>
+      </c>
+      <c r="K31">
+        <v>7.8</v>
+      </c>
+      <c r="M31">
+        <v>4.9</v>
+      </c>
+      <c r="N31">
+        <v>0.1</v>
+      </c>
+      <c r="O31">
         <v>55</v>
       </c>
-      <c r="E31">
-        <v>1.8</v>
-      </c>
-      <c r="F31">
-        <v>50.4</v>
-      </c>
-      <c r="H31">
-        <v>0.7</v>
-      </c>
-      <c r="J31">
-        <v>11.8</v>
-      </c>
-      <c r="K31">
-        <v>7.3</v>
-      </c>
-      <c r="M31">
-        <v>5.3</v>
-      </c>
-      <c r="N31">
-        <v>0.2</v>
-      </c>
-      <c r="O31">
-        <v>56.6</v>
-      </c>
       <c r="P31">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2019,7 +2070,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2028,31 +2079,31 @@
         <v>53.7</v>
       </c>
       <c r="E32">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="F32">
-        <v>50.8</v>
+        <v>51.7</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J32">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="K32">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M32">
         <v>4.9</v>
       </c>
       <c r="N32">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O32">
-        <v>55.7</v>
+        <v>55.1</v>
       </c>
       <c r="P32">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2060,37 +2111,37 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <v>53.9</v>
+        <v>53.7</v>
       </c>
       <c r="E33">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J33">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K33">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M33">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>55</v>
+        <v>56.3</v>
       </c>
       <c r="P33">
         <v>6.1</v>
@@ -2101,40 +2152,40 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>53.7</v>
+        <v>51.7</v>
       </c>
       <c r="E34">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="F34">
-        <v>51.7</v>
+        <v>51.1</v>
       </c>
       <c r="H34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J34">
         <v>11.6</v>
       </c>
       <c r="K34">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M34">
         <v>4.9</v>
       </c>
       <c r="N34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>55.1</v>
+        <v>55.7</v>
       </c>
       <c r="P34">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2142,40 +2193,40 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>53.7</v>
+        <v>54.7</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F35">
-        <v>51.1</v>
+        <v>50.8</v>
       </c>
       <c r="H35">
         <v>0.4</v>
       </c>
       <c r="J35">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K35">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M35">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="P35">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2189,13 +2240,13 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>51.7</v>
+        <v>51.4</v>
       </c>
       <c r="E36">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F36">
-        <v>51.1</v>
+        <v>50.3</v>
       </c>
       <c r="H36">
         <v>0.3</v>
@@ -2204,19 +2255,19 @@
         <v>11.6</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="M36">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="O36">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="P36">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2224,40 +2275,40 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>54.7</v>
+        <v>52.5</v>
       </c>
       <c r="E37">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F37">
-        <v>50.8</v>
+        <v>50.1</v>
       </c>
       <c r="H37">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="J37">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K37">
-        <v>8.300000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="M37">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="O37">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="P37">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2265,40 +2316,40 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>51.4</v>
+        <v>49.3</v>
       </c>
       <c r="E38">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F38">
-        <v>50.3</v>
+        <v>49.8</v>
       </c>
       <c r="H38">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="J38">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="K38">
-        <v>9.1</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="O38">
-        <v>56.3</v>
+        <v>53.9</v>
       </c>
       <c r="P38">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2306,40 +2357,40 @@
         <v>53</v>
       </c>
       <c r="B39">
+        <v>-0.8</v>
+      </c>
+      <c r="C39">
+        <v>3.1</v>
+      </c>
+      <c r="D39">
+        <v>47.7</v>
+      </c>
+      <c r="E39">
+        <v>1.4</v>
+      </c>
+      <c r="F39">
+        <v>49.9</v>
+      </c>
+      <c r="H39">
         <v>-0.3</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>52.5</v>
-      </c>
-      <c r="E39">
-        <v>1.5</v>
-      </c>
-      <c r="F39">
-        <v>50.1</v>
-      </c>
-      <c r="H39">
-        <v>-0.2</v>
-      </c>
       <c r="J39">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="K39">
-        <v>11.4</v>
+        <v>16.7</v>
       </c>
       <c r="M39">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="N39">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="O39">
-        <v>55.7</v>
+        <v>53</v>
       </c>
       <c r="P39">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2347,40 +2398,40 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D40">
-        <v>49.3</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F40">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="H40">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="J40">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="K40">
-        <v>15</v>
+        <v>16.9</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="N40">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O40">
-        <v>53.9</v>
+        <v>52.1</v>
       </c>
       <c r="P40">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2388,40 +2439,40 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="C41">
         <v>3.1</v>
       </c>
       <c r="D41">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F41">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="H41">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J41">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K41">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="M41">
         <v>5.8</v>
       </c>
       <c r="N41">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O41">
-        <v>53</v>
+        <v>51.9</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2429,40 +2480,40 @@
         <v>56</v>
       </c>
       <c r="B42">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="E42">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F42">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="H42">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
       <c r="J42">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="K42">
-        <v>16.9</v>
+        <v>15.8</v>
       </c>
       <c r="M42">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="N42">
         <v>0.3</v>
       </c>
       <c r="O42">
-        <v>52.1</v>
+        <v>52.9</v>
       </c>
       <c r="P42">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2470,40 +2521,40 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="C43">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>50.3</v>
       </c>
       <c r="E43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F43">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="H43">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J43">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="K43">
-        <v>16.4</v>
+        <v>15.3</v>
       </c>
       <c r="M43">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="N43">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O43">
-        <v>51.9</v>
+        <v>52.5</v>
       </c>
       <c r="P43">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2511,40 +2562,40 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="C44">
         <v>3.2</v>
       </c>
       <c r="D44">
-        <v>47.2</v>
+        <v>49.9</v>
       </c>
       <c r="E44">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F44">
-        <v>50.2</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="K44">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="M44">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="N44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O44">
-        <v>52.9</v>
+        <v>52</v>
       </c>
       <c r="P44">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2552,40 +2603,40 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="C45">
         <v>3.2</v>
       </c>
       <c r="D45">
-        <v>50.3</v>
+        <v>51.2</v>
       </c>
       <c r="E45">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F45">
+        <v>49.7</v>
+      </c>
+      <c r="H45">
+        <v>0.4</v>
+      </c>
+      <c r="J45">
+        <v>10.7</v>
+      </c>
+      <c r="K45">
+        <v>15.8</v>
+      </c>
+      <c r="M45">
+        <v>5.3</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>50.2</v>
       </c>
-      <c r="H45">
-        <v>0.5</v>
-      </c>
-      <c r="J45">
-        <v>11.1</v>
-      </c>
-      <c r="K45">
-        <v>15.3</v>
-      </c>
-      <c r="M45">
-        <v>5.4</v>
-      </c>
-      <c r="N45">
-        <v>0.3</v>
-      </c>
-      <c r="O45">
-        <v>52.5</v>
-      </c>
       <c r="P45">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2593,40 +2644,40 @@
         <v>60</v>
       </c>
       <c r="B46">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="C46">
         <v>3.2</v>
       </c>
       <c r="D46">
-        <v>49.9</v>
+        <v>48.2</v>
       </c>
       <c r="E46">
         <v>1.6</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J46">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="K46">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="M46">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="N46">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="O46">
-        <v>52</v>
+        <v>50.1</v>
       </c>
       <c r="P46">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2640,13 +2691,13 @@
         <v>3.2</v>
       </c>
       <c r="D47">
-        <v>51.2</v>
+        <v>49.7</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="F47">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="H47">
         <v>0.4</v>
@@ -2655,19 +2706,19 @@
         <v>10.7</v>
       </c>
       <c r="K47">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="M47">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O47">
-        <v>50.2</v>
+        <v>49.1</v>
       </c>
       <c r="P47">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2678,37 +2729,37 @@
         <v>-1.4</v>
       </c>
       <c r="C48">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D48">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="E48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F48">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="H48">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J48">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="K48">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="N48">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O48">
-        <v>50.1</v>
+        <v>49.1</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2716,37 +2767,37 @@
         <v>63</v>
       </c>
       <c r="B49">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D49">
+        <v>49.8</v>
+      </c>
+      <c r="E49">
+        <v>1.6</v>
+      </c>
+      <c r="F49">
         <v>49.7</v>
       </c>
-      <c r="E49">
-        <v>1.3</v>
-      </c>
-      <c r="F49">
-        <v>49.8</v>
-      </c>
       <c r="H49">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J49">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="K49">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="M49">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="N49">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="O49">
-        <v>49.1</v>
+        <v>48.7</v>
       </c>
       <c r="P49">
         <v>5</v>
@@ -2757,40 +2808,40 @@
         <v>64</v>
       </c>
       <c r="B50">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="C50">
         <v>3.3</v>
       </c>
       <c r="D50">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="E50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F50">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="H50">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J50">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="K50">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M50">
         <v>5.8</v>
       </c>
       <c r="N50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>49.1</v>
+        <v>47.6</v>
       </c>
       <c r="P50">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2798,28 +2849,28 @@
         <v>65</v>
       </c>
       <c r="B51">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="C51">
         <v>3.3</v>
       </c>
       <c r="D51">
-        <v>49.8</v>
+        <v>50.9</v>
       </c>
       <c r="E51">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="F51">
-        <v>49.7</v>
+        <v>49</v>
       </c>
       <c r="H51">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J51">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="K51">
-        <v>12.9</v>
+        <v>8.1</v>
       </c>
       <c r="M51">
         <v>5.8</v>
@@ -2828,10 +2879,10 @@
         <v>-0.1</v>
       </c>
       <c r="O51">
-        <v>48.7</v>
+        <v>49.2</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2839,40 +2890,40 @@
         <v>66</v>
       </c>
       <c r="B52">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C52">
         <v>3.3</v>
       </c>
       <c r="D52">
-        <v>50.4</v>
+        <v>52.9</v>
       </c>
       <c r="E52">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="F52">
-        <v>49.4</v>
+        <v>50.2</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>10.3</v>
+      </c>
+      <c r="K52">
+        <v>7.3</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
         <v>0.3</v>
       </c>
-      <c r="J52">
-        <v>10.5</v>
-      </c>
-      <c r="K52">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="M52">
-        <v>5.8</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
       <c r="O52">
-        <v>47.6</v>
+        <v>51</v>
       </c>
       <c r="P52">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -2880,40 +2931,40 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="C53">
         <v>3.3</v>
       </c>
       <c r="D53">
-        <v>50.9</v>
+        <v>53.7</v>
       </c>
       <c r="E53">
         <v>2.3</v>
       </c>
       <c r="F53">
-        <v>49</v>
+        <v>50.1</v>
       </c>
       <c r="H53">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J53">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="K53">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="M53">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N53">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O53">
-        <v>49.2</v>
+        <v>51.3</v>
       </c>
       <c r="P53">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2921,40 +2972,40 @@
         <v>68</v>
       </c>
       <c r="B54">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="C54">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D54">
-        <v>52.9</v>
+        <v>56.1</v>
       </c>
       <c r="E54">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J54">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="K54">
         <v>7.3</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="N54">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O54">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2968,34 +3019,34 @@
         <v>3.3</v>
       </c>
       <c r="D55">
-        <v>53.7</v>
+        <v>51.6</v>
       </c>
       <c r="E55">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="F55">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="K55">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M55">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="N55">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O55">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="P55">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3003,37 +3054,37 @@
         <v>70</v>
       </c>
       <c r="B56">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D56">
-        <v>56.1</v>
+        <v>50.7</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F56">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>7.2</v>
+      </c>
+      <c r="M56">
+        <v>5.3</v>
+      </c>
+      <c r="N56">
         <v>-0.1</v>
       </c>
-      <c r="J56">
-        <v>10.2</v>
-      </c>
-      <c r="K56">
-        <v>7.3</v>
-      </c>
-      <c r="M56">
-        <v>5.6</v>
-      </c>
-      <c r="N56">
-        <v>0.2</v>
-      </c>
       <c r="O56">
-        <v>51.4</v>
+        <v>52.7</v>
       </c>
       <c r="P56">
         <v>4.8</v>
@@ -3044,37 +3095,37 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="C57">
         <v>3.3</v>
       </c>
       <c r="D57">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="E57">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>50.4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J57">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="K57">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="M57">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="N57">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O57">
-        <v>52.2</v>
+        <v>49.8</v>
       </c>
       <c r="P57">
         <v>4.9</v>
@@ -3091,34 +3142,34 @@
         <v>3.3</v>
       </c>
       <c r="D58">
-        <v>50.7</v>
+        <v>54.9</v>
       </c>
       <c r="E58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F58">
-        <v>49.9</v>
+        <v>50.4</v>
       </c>
       <c r="H58">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="K58">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="M58">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="N58">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O58">
-        <v>52.7</v>
+        <v>51.1</v>
       </c>
       <c r="P58">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3126,37 +3177,37 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C59">
         <v>3.3</v>
       </c>
       <c r="D59">
-        <v>51.8</v>
+        <v>55</v>
       </c>
       <c r="E59">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="F59">
-        <v>50.4</v>
+        <v>51.2</v>
       </c>
       <c r="H59">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K59">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="M59">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="N59">
         <v>0.2</v>
       </c>
       <c r="O59">
-        <v>49.8</v>
+        <v>51.8</v>
       </c>
       <c r="P59">
         <v>4.9</v>
@@ -3167,40 +3218,40 @@
         <v>74</v>
       </c>
       <c r="B60">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C60">
         <v>3.3</v>
       </c>
       <c r="D60">
-        <v>54.9</v>
+        <v>55.3</v>
       </c>
       <c r="E60">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="F60">
-        <v>50.4</v>
+        <v>51.7</v>
       </c>
       <c r="H60">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J60">
         <v>9.9</v>
       </c>
       <c r="K60">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="M60">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="N60">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O60">
-        <v>51.1</v>
+        <v>53.2</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3208,40 +3259,40 @@
         <v>75</v>
       </c>
       <c r="B61">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>3.3</v>
       </c>
       <c r="D61">
-        <v>55</v>
+        <v>55.3</v>
       </c>
       <c r="E61">
         <v>2.1</v>
       </c>
       <c r="F61">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="H61">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="J61">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K61">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="M61">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="N61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O61">
-        <v>51.8</v>
+        <v>54.4</v>
       </c>
       <c r="P61">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3249,37 +3300,40 @@
         <v>76</v>
       </c>
       <c r="B62">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="C62">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D62">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E62">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="F62">
-        <v>51.7</v>
+        <v>51.3</v>
+      </c>
+      <c r="G62">
+        <v>5.2</v>
       </c>
       <c r="H62">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="J62">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="K62">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="M62">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N62">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O62">
-        <v>53.2</v>
+        <v>55.7</v>
       </c>
       <c r="P62">
         <v>4.7</v>
@@ -3290,40 +3344,43 @@
         <v>77</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D63">
-        <v>55.3</v>
+        <v>57.2</v>
       </c>
       <c r="E63">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="F63">
-        <v>51.4</v>
+        <v>51.6</v>
+      </c>
+      <c r="G63">
+        <v>5.4</v>
       </c>
       <c r="H63">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K63">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="M63">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="N63">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O63">
-        <v>54.4</v>
+        <v>57.7</v>
       </c>
       <c r="P63">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3331,43 +3388,43 @@
         <v>78</v>
       </c>
       <c r="B64">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C64">
         <v>3.2</v>
       </c>
       <c r="D64">
-        <v>54.9</v>
+        <v>58.6</v>
       </c>
       <c r="E64">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="F64">
-        <v>51.3</v>
+        <v>51.8</v>
       </c>
       <c r="G64">
         <v>5.2</v>
       </c>
       <c r="H64">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J64">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M64">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N64">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>55.7</v>
+        <v>56.5</v>
       </c>
       <c r="P64">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3375,43 +3432,43 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C65">
         <v>3.2</v>
       </c>
       <c r="D65">
-        <v>57.2</v>
+        <v>58.2</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F65">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="G65">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J65">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K65">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="M65">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="N65">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O65">
-        <v>57.7</v>
+        <v>55.8</v>
       </c>
       <c r="P65">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3419,40 +3476,40 @@
         <v>80</v>
       </c>
       <c r="B66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C66">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D66">
-        <v>58.6</v>
+        <v>56.6</v>
       </c>
       <c r="E66">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F66">
-        <v>51.8</v>
+        <v>51.2</v>
       </c>
       <c r="G66">
+        <v>4.9</v>
+      </c>
+      <c r="H66">
+        <v>1.4</v>
+      </c>
+      <c r="J66">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K66">
+        <v>4.1</v>
+      </c>
+      <c r="M66">
         <v>5.2</v>
       </c>
-      <c r="H66">
-        <v>1.5</v>
-      </c>
-      <c r="J66">
-        <v>9.5</v>
-      </c>
-      <c r="K66">
-        <v>4.3</v>
-      </c>
-      <c r="M66">
-        <v>5.4</v>
-      </c>
       <c r="N66">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O66">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="P66">
         <v>4.4</v>
@@ -3463,43 +3520,43 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C67">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D67">
-        <v>58.2</v>
+        <v>60.5</v>
       </c>
       <c r="E67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F67">
-        <v>51.2</v>
+        <v>51.7</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H67">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="J67">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="K67">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="M67">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="N67">
         <v>0.1</v>
       </c>
       <c r="O67">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
       <c r="P67">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3507,43 +3564,43 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C68">
         <v>3.1</v>
       </c>
       <c r="D68">
-        <v>56.6</v>
+        <v>60.2</v>
       </c>
       <c r="E68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F68">
-        <v>51.2</v>
+        <v>51.4</v>
       </c>
       <c r="G68">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H68">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J68">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="K68">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M68">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="N68">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="P68">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3551,43 +3608,40 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C69">
         <v>3.1</v>
       </c>
       <c r="D69">
-        <v>60.5</v>
+        <v>61.2</v>
       </c>
       <c r="E69">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F69">
         <v>51.7</v>
       </c>
-      <c r="G69">
+      <c r="H69">
+        <v>1.5</v>
+      </c>
+      <c r="J69">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
         <v>4.9</v>
       </c>
-      <c r="H69">
-        <v>1.3</v>
-      </c>
-      <c r="J69">
-        <v>9.1</v>
-      </c>
-      <c r="K69">
+      <c r="N69">
+        <v>0.4</v>
+      </c>
+      <c r="O69">
+        <v>58.4</v>
+      </c>
+      <c r="P69">
         <v>4.4</v>
-      </c>
-      <c r="M69">
-        <v>5.1</v>
-      </c>
-      <c r="N69">
-        <v>0.1</v>
-      </c>
-      <c r="O69">
-        <v>56.2</v>
-      </c>
-      <c r="P69">
-        <v>4.3</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3595,40 +3649,37 @@
         <v>84</v>
       </c>
       <c r="B70">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>60.2</v>
+        <v>62.4</v>
       </c>
       <c r="E70">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F70">
-        <v>51.4</v>
-      </c>
-      <c r="G70">
-        <v>5.1</v>
+        <v>52.4</v>
       </c>
       <c r="H70">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J70">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="K70">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O70">
-        <v>56.5</v>
+        <v>60</v>
       </c>
       <c r="P70">
         <v>4.3</v>
@@ -3639,40 +3690,40 @@
         <v>85</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D71">
-        <v>61.2</v>
+        <v>61.6</v>
       </c>
       <c r="E71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F71">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="H71">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J71">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K71">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M71">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O71">
-        <v>58.4</v>
+        <v>58.6</v>
       </c>
       <c r="P71">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -3680,40 +3731,40 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>62.4</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E72">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="F72">
-        <v>52.4</v>
+        <v>51.8</v>
       </c>
       <c r="H72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J72">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N72">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O72">
-        <v>60</v>
+        <v>57.6</v>
       </c>
       <c r="P72">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -3721,40 +3772,43 @@
         <v>87</v>
       </c>
       <c r="B73">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D73">
-        <v>61.6</v>
+        <v>63.9</v>
       </c>
       <c r="E73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F73">
         <v>51.6</v>
       </c>
       <c r="H73">
-        <v>1.4</v>
+        <v>1.3</v>
+      </c>
+      <c r="I73">
+        <v>60.6</v>
       </c>
       <c r="J73">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="N73">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O73">
-        <v>58.6</v>
+        <v>59.7</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -3762,40 +3816,46 @@
         <v>88</v>
       </c>
       <c r="B74">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D74">
-        <v>64.09999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E74">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F74">
-        <v>51.8</v>
+        <v>51.3</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
       </c>
       <c r="H74">
-        <v>1.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="I74">
+        <v>59.6</v>
       </c>
       <c r="J74">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M74">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="N74">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O74">
-        <v>57.6</v>
+        <v>59.4</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -3803,40 +3863,43 @@
         <v>89</v>
       </c>
       <c r="B75">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C75">
+        <v>2.8</v>
+      </c>
+      <c r="D75">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E75">
         <v>2.9</v>
       </c>
-      <c r="D75">
-        <v>63.9</v>
-      </c>
-      <c r="E75">
-        <v>1.8</v>
-      </c>
       <c r="F75">
-        <v>51.6</v>
+        <v>50.3</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
       </c>
       <c r="H75">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I75">
-        <v>60.6</v>
+        <v>58.6</v>
       </c>
       <c r="J75">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K75">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M75">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O75">
-        <v>59.7</v>
+        <v>60.9</v>
       </c>
       <c r="P75">
         <v>4.1</v>
@@ -3847,43 +3910,43 @@
         <v>90</v>
       </c>
       <c r="B76">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C76">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D76">
-        <v>65.09999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="E76">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F76">
-        <v>51.3</v>
+        <v>51.5</v>
       </c>
       <c r="G76">
+        <v>5.1</v>
+      </c>
+      <c r="H76">
+        <v>1.4</v>
+      </c>
+      <c r="I76">
+        <v>56.6</v>
+      </c>
+      <c r="J76">
+        <v>8.6</v>
+      </c>
+      <c r="K76">
+        <v>2.4</v>
+      </c>
+      <c r="M76">
         <v>5</v>
       </c>
-      <c r="H76">
-        <v>1.3</v>
-      </c>
-      <c r="I76">
-        <v>59.6</v>
-      </c>
-      <c r="J76">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K76">
-        <v>2.2</v>
-      </c>
-      <c r="M76">
-        <v>5.2</v>
-      </c>
       <c r="N76">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O76">
-        <v>59.4</v>
+        <v>58.8</v>
       </c>
       <c r="P76">
         <v>4</v>
@@ -3894,46 +3957,46 @@
         <v>91</v>
       </c>
       <c r="B77">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C77">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D77">
-        <v>64.09999999999999</v>
+        <v>63.6</v>
       </c>
       <c r="E77">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="F77">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H77">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I77">
+        <v>56.2</v>
+      </c>
+      <c r="J77">
+        <v>8.5</v>
+      </c>
+      <c r="K77">
+        <v>2.4</v>
+      </c>
+      <c r="M77">
+        <v>4.9</v>
+      </c>
+      <c r="N77">
+        <v>0.2</v>
+      </c>
+      <c r="O77">
         <v>58.6</v>
       </c>
-      <c r="J77">
-        <v>8.6</v>
-      </c>
-      <c r="K77">
-        <v>2.2</v>
-      </c>
-      <c r="M77">
-        <v>5</v>
-      </c>
-      <c r="N77">
-        <v>0.3</v>
-      </c>
-      <c r="O77">
-        <v>60.9</v>
-      </c>
       <c r="P77">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -3941,46 +4004,46 @@
         <v>92</v>
       </c>
       <c r="B78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D78">
-        <v>61.5</v>
+        <v>63.4</v>
       </c>
       <c r="E78">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F78">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="G78">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H78">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>56.6</v>
+        <v>55.5</v>
       </c>
       <c r="J78">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K78">
         <v>2.4</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="N78">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O78">
-        <v>58.8</v>
+        <v>59</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -3988,43 +4051,43 @@
         <v>93</v>
       </c>
       <c r="B79">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="C79">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D79">
-        <v>63.6</v>
+        <v>62.3</v>
       </c>
       <c r="E79">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F79">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="G79">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H79">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>56.2</v>
+        <v>54.9</v>
       </c>
       <c r="J79">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M79">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="N79">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O79">
-        <v>58.6</v>
+        <v>59.9</v>
       </c>
       <c r="P79">
         <v>4</v>
@@ -4035,43 +4098,43 @@
         <v>94</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C80">
         <v>2.5</v>
       </c>
       <c r="D80">
-        <v>63.4</v>
+        <v>62</v>
       </c>
       <c r="E80">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F80">
-        <v>51.9</v>
+        <v>51.2</v>
       </c>
       <c r="G80">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I80">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="J80">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="K80">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M80">
         <v>4.7</v>
       </c>
       <c r="N80">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O80">
-        <v>59</v>
+        <v>58.1</v>
       </c>
       <c r="P80">
         <v>3.8</v>
@@ -4082,46 +4145,46 @@
         <v>95</v>
       </c>
       <c r="B81">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="C81">
         <v>2.5</v>
       </c>
       <c r="D81">
-        <v>62.3</v>
+        <v>64.2</v>
       </c>
       <c r="E81">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="F81">
-        <v>51.5</v>
+        <v>51.3</v>
       </c>
       <c r="G81">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I81">
-        <v>54.9</v>
+        <v>54.6</v>
       </c>
       <c r="J81">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N81">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O81">
-        <v>59.9</v>
+        <v>60.5</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4129,46 +4192,46 @@
         <v>96</v>
       </c>
       <c r="B82">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>2.5</v>
       </c>
       <c r="D82">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E82">
+        <v>2.5</v>
+      </c>
+      <c r="F82">
+        <v>50.8</v>
+      </c>
+      <c r="G82">
+        <v>4.9</v>
+      </c>
+      <c r="H82">
         <v>2.1</v>
       </c>
-      <c r="F82">
-        <v>51.2</v>
-      </c>
-      <c r="G82">
-        <v>5.1</v>
-      </c>
-      <c r="H82">
-        <v>2.2</v>
-      </c>
       <c r="I82">
-        <v>55.1</v>
+        <v>53.2</v>
       </c>
       <c r="J82">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="N82">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O82">
-        <v>58.1</v>
+        <v>59.3</v>
       </c>
       <c r="P82">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4176,43 +4239,43 @@
         <v>97</v>
       </c>
       <c r="B83">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C83">
+        <v>2.4</v>
+      </c>
+      <c r="D83">
+        <v>57.7</v>
+      </c>
+      <c r="E83">
         <v>2.5</v>
       </c>
-      <c r="D83">
-        <v>64.2</v>
-      </c>
-      <c r="E83">
+      <c r="F83">
+        <v>50.2</v>
+      </c>
+      <c r="G83">
+        <v>4.9</v>
+      </c>
+      <c r="H83">
         <v>2.3</v>
       </c>
-      <c r="F83">
-        <v>51.3</v>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-      <c r="H83">
-        <v>2.1</v>
-      </c>
       <c r="I83">
-        <v>54.6</v>
+        <v>52</v>
       </c>
       <c r="J83">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="K83">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="N83">
         <v>0.2</v>
       </c>
       <c r="O83">
-        <v>60.5</v>
+        <v>58.1</v>
       </c>
       <c r="P83">
         <v>3.8</v>
@@ -4223,46 +4286,46 @@
         <v>98</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C84">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D84">
-        <v>60</v>
+        <v>57.1</v>
       </c>
       <c r="E84">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="F84">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="G84">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H84">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="I84">
-        <v>53.2</v>
+        <v>51.8</v>
       </c>
       <c r="J84">
         <v>8</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="N84">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O84">
-        <v>59.3</v>
+        <v>58.6</v>
       </c>
       <c r="P84">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4270,46 +4333,46 @@
         <v>99</v>
       </c>
       <c r="B85">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="C85">
         <v>2.4</v>
       </c>
       <c r="D85">
-        <v>57.7</v>
+        <v>56.4</v>
       </c>
       <c r="E85">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="F85">
-        <v>50.2</v>
+        <v>49.4</v>
       </c>
       <c r="G85">
         <v>4.9</v>
       </c>
       <c r="H85">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="I85">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="J85">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="K85">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="M85">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="N85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>58.1</v>
+        <v>54.9</v>
       </c>
       <c r="P85">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4317,46 +4380,43 @@
         <v>100</v>
       </c>
       <c r="B86">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C86">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D86">
-        <v>57.1</v>
+        <v>54.6</v>
       </c>
       <c r="E86">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="F86">
-        <v>50</v>
-      </c>
-      <c r="G86">
-        <v>4.8</v>
+        <v>49.5</v>
       </c>
       <c r="H86">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="I86">
-        <v>51.8</v>
+        <v>50.5</v>
       </c>
       <c r="J86">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="K86">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M86">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N86">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>58.6</v>
+        <v>55.7</v>
       </c>
       <c r="P86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4364,46 +4424,46 @@
         <v>101</v>
       </c>
       <c r="B87">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C87">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="D87">
-        <v>56.4</v>
+        <v>54.5</v>
       </c>
       <c r="E87">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F87">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="G87">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="H87">
         <v>1.5</v>
       </c>
       <c r="I87">
-        <v>51.4</v>
+        <v>49.3</v>
       </c>
       <c r="J87">
         <v>7.9</v>
       </c>
       <c r="K87">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="M87">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O87">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="P87">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4411,43 +4471,46 @@
         <v>102</v>
       </c>
       <c r="B88">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C88">
         <v>2.3</v>
       </c>
       <c r="D88">
-        <v>54.6</v>
+        <v>50.5</v>
       </c>
       <c r="E88">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="F88">
-        <v>49.5</v>
+        <v>50.5</v>
+      </c>
+      <c r="G88">
+        <v>5.2</v>
       </c>
       <c r="H88">
         <v>1.4</v>
       </c>
       <c r="I88">
-        <v>50.5</v>
+        <v>47.5</v>
       </c>
       <c r="J88">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="K88">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M88">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O88">
-        <v>55.7</v>
+        <v>54.9</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4455,46 +4518,49 @@
         <v>103</v>
       </c>
       <c r="B89">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C89">
         <v>2.3</v>
       </c>
       <c r="D89">
-        <v>54.5</v>
+        <v>49.3</v>
       </c>
       <c r="E89">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F89">
-        <v>49.2</v>
+        <v>50.1</v>
       </c>
       <c r="G89">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I89">
-        <v>49.3</v>
+        <v>47.9</v>
       </c>
       <c r="J89">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="K89">
         <v>5.2</v>
       </c>
+      <c r="L89">
+        <v>51.8</v>
+      </c>
       <c r="M89">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="N89">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O89">
-        <v>54.4</v>
+        <v>53.6</v>
       </c>
       <c r="P89">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4502,46 +4568,49 @@
         <v>104</v>
       </c>
       <c r="B90">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C90">
         <v>2.3</v>
       </c>
       <c r="D90">
-        <v>50.5</v>
+        <v>49.1</v>
       </c>
       <c r="E90">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="F90">
-        <v>50.5</v>
+        <v>49.4</v>
       </c>
       <c r="G90">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H90">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I90">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="J90">
         <v>7.7</v>
       </c>
       <c r="K90">
-        <v>5.2</v>
+        <v>5.1</v>
+      </c>
+      <c r="L90">
+        <v>49.8</v>
       </c>
       <c r="M90">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O90">
-        <v>54.9</v>
+        <v>52.6</v>
       </c>
       <c r="P90">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4549,46 +4618,46 @@
         <v>105</v>
       </c>
       <c r="B91">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C91">
         <v>2.3</v>
       </c>
       <c r="D91">
-        <v>49.3</v>
+        <v>48.2</v>
       </c>
       <c r="E91">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F91">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H91">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="I91">
-        <v>47.9</v>
+        <v>47.6</v>
       </c>
       <c r="J91">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="K91">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L91">
-        <v>51.8</v>
+        <v>48.6</v>
       </c>
       <c r="M91">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="N91">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>53.6</v>
+        <v>51.5</v>
       </c>
       <c r="P91">
         <v>3.6</v>
@@ -4599,49 +4668,49 @@
         <v>106</v>
       </c>
       <c r="B92">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C92">
         <v>2.3</v>
       </c>
       <c r="D92">
-        <v>49.1</v>
+        <v>45</v>
       </c>
       <c r="E92">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F92">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H92">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>47.7</v>
+        <v>46.5</v>
       </c>
       <c r="J92">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="K92">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L92">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="M92">
         <v>4.5</v>
       </c>
       <c r="N92">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O92">
-        <v>52.6</v>
+        <v>51</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4649,49 +4718,49 @@
         <v>107</v>
       </c>
       <c r="B93">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C93">
         <v>2.3</v>
       </c>
       <c r="D93">
-        <v>48.2</v>
+        <v>46.5</v>
       </c>
       <c r="E93">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F93">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="G93">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H93">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>47.6</v>
+        <v>47</v>
       </c>
       <c r="J93">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K93">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L93">
-        <v>48.6</v>
+        <v>49.1</v>
       </c>
       <c r="M93">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O93">
-        <v>51.5</v>
+        <v>48.5</v>
       </c>
       <c r="P93">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4699,37 +4768,37 @@
         <v>108</v>
       </c>
       <c r="B94">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C94">
         <v>2.3</v>
       </c>
       <c r="D94">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="E94">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="G94">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I94">
-        <v>46.5</v>
+        <v>45.7</v>
       </c>
       <c r="J94">
         <v>7.5</v>
       </c>
       <c r="K94">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L94">
-        <v>49.3</v>
+        <v>46.3</v>
       </c>
       <c r="M94">
         <v>4.5</v>
@@ -4738,10 +4807,10 @@
         <v>0.2</v>
       </c>
       <c r="O94">
-        <v>51</v>
+        <v>48.1</v>
       </c>
       <c r="P94">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4749,49 +4818,49 @@
         <v>109</v>
       </c>
       <c r="B95">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="C95">
         <v>2.3</v>
       </c>
       <c r="D95">
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="E95">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="F95">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="G95">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I95">
-        <v>47</v>
+        <v>45.9</v>
       </c>
       <c r="J95">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K95">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L95">
-        <v>49.1</v>
+        <v>47.2</v>
       </c>
       <c r="M95">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="N95">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O95">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="P95">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4799,40 +4868,40 @@
         <v>110</v>
       </c>
       <c r="B96">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="C96">
         <v>2.3</v>
       </c>
       <c r="D96">
-        <v>44.5</v>
+        <v>48.5</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F96">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="G96">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>45.7</v>
+        <v>46.9</v>
       </c>
       <c r="J96">
         <v>7.5</v>
       </c>
       <c r="K96">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>46.3</v>
+        <v>45.6</v>
       </c>
       <c r="M96">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="N96">
         <v>0.2</v>
@@ -4841,7 +4910,7 @@
         <v>48.1</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4849,46 +4918,46 @@
         <v>111</v>
       </c>
       <c r="B97">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C97">
         <v>2.3</v>
       </c>
       <c r="D97">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
       <c r="E97">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="F97">
-        <v>49.3</v>
+        <v>50.2</v>
       </c>
       <c r="G97">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H97">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="I97">
-        <v>45.9</v>
+        <v>46.3</v>
       </c>
       <c r="J97">
         <v>7.5</v>
       </c>
       <c r="K97">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="M97">
         <v>4.6</v>
       </c>
       <c r="N97">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O97">
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="P97">
         <v>3.6</v>
@@ -4899,7 +4968,7 @@
         <v>112</v>
       </c>
       <c r="B98">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C98">
         <v>2.3</v>
@@ -4908,40 +4977,37 @@
         <v>48.5</v>
       </c>
       <c r="E98">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="F98">
-        <v>50.2</v>
-      </c>
-      <c r="G98">
-        <v>5.1</v>
+        <v>50</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I98">
-        <v>46.9</v>
+        <v>47.9</v>
       </c>
       <c r="J98">
         <v>7.5</v>
       </c>
       <c r="K98">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="L98">
-        <v>45.6</v>
+        <v>47.9</v>
       </c>
       <c r="M98">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="N98">
         <v>0.2</v>
       </c>
       <c r="O98">
-        <v>48.1</v>
+        <v>51.4</v>
       </c>
       <c r="P98">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4949,49 +5015,49 @@
         <v>113</v>
       </c>
       <c r="B99">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C99">
         <v>2.3</v>
       </c>
       <c r="D99">
+        <v>49.7</v>
+      </c>
+      <c r="E99">
+        <v>5.2</v>
+      </c>
+      <c r="F99">
+        <v>35.7</v>
+      </c>
+      <c r="G99">
+        <v>6.2</v>
+      </c>
+      <c r="H99">
+        <v>1.2</v>
+      </c>
+      <c r="I99">
         <v>49.2</v>
       </c>
-      <c r="E99">
-        <v>4.5</v>
-      </c>
-      <c r="F99">
-        <v>50.2</v>
-      </c>
-      <c r="G99">
-        <v>5.2</v>
-      </c>
-      <c r="H99">
-        <v>1.3</v>
-      </c>
-      <c r="I99">
-        <v>46.3</v>
-      </c>
       <c r="J99">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="M99">
         <v>4.6</v>
       </c>
       <c r="N99">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O99">
-        <v>47.9</v>
+        <v>50.3</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4999,46 +5065,49 @@
         <v>114</v>
       </c>
       <c r="B100">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C100">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D100">
-        <v>48.5</v>
+        <v>43.2</v>
       </c>
       <c r="E100">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="F100">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="G100">
+        <v>5.9</v>
       </c>
       <c r="H100">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="I100">
-        <v>47.9</v>
+        <v>44.5</v>
       </c>
       <c r="J100">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="K100">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L100">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="M100">
         <v>4.7</v>
       </c>
       <c r="N100">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O100">
-        <v>51.4</v>
+        <v>49.1</v>
       </c>
       <c r="P100">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5046,49 +5115,49 @@
         <v>115</v>
       </c>
       <c r="B101">
-        <v>-0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="C101">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="D101">
-        <v>49.7</v>
+        <v>40.7</v>
       </c>
       <c r="E101">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="F101">
-        <v>35.7</v>
+        <v>50.8</v>
       </c>
       <c r="G101">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H101">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="I101">
-        <v>49.2</v>
+        <v>33.4</v>
       </c>
       <c r="J101">
         <v>7.4</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L101">
-        <v>48.2</v>
+        <v>31.3</v>
       </c>
       <c r="M101">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="N101">
-        <v>0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O101">
-        <v>50.3</v>
+        <v>41.6</v>
       </c>
       <c r="P101">
-        <v>3.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5096,49 +5165,49 @@
         <v>116</v>
       </c>
       <c r="B102">
-        <v>-0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="C102">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D102">
-        <v>43.2</v>
+        <v>42</v>
       </c>
       <c r="E102">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="F102">
-        <v>52</v>
+        <v>50.6</v>
       </c>
       <c r="G102">
         <v>5.9</v>
       </c>
       <c r="H102">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I102">
-        <v>44.5</v>
+        <v>39.4</v>
       </c>
       <c r="J102">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>47.5</v>
+        <v>36.2</v>
       </c>
       <c r="M102">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="N102">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="O102">
-        <v>49.1</v>
+        <v>43.5</v>
       </c>
       <c r="P102">
-        <v>4.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5146,49 +5215,49 @@
         <v>117</v>
       </c>
       <c r="B103">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="C103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D103">
-        <v>40.7</v>
+        <v>41.5</v>
       </c>
       <c r="E103">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="F103">
-        <v>50.8</v>
+        <v>50.9</v>
       </c>
       <c r="G103">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H103">
         <v>0.3</v>
       </c>
       <c r="I103">
-        <v>33.4</v>
+        <v>47.4</v>
       </c>
       <c r="J103">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="K103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L103">
-        <v>31.3</v>
+        <v>49.4</v>
       </c>
       <c r="M103">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="N103">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O103">
-        <v>41.6</v>
+        <v>52.4</v>
       </c>
       <c r="P103">
-        <v>14.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5196,49 +5265,49 @@
         <v>118</v>
       </c>
       <c r="B104">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C104">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D104">
-        <v>42</v>
+        <v>48.9</v>
       </c>
       <c r="E104">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F104">
-        <v>50.6</v>
+        <v>51.1</v>
       </c>
       <c r="G104">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H104">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
-        <v>39.4</v>
+        <v>51.8</v>
       </c>
       <c r="J104">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L104">
-        <v>36.2</v>
+        <v>48.4</v>
       </c>
       <c r="M104">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="N104">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O104">
-        <v>43.5</v>
+        <v>53.9</v>
       </c>
       <c r="P104">
-        <v>13.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5246,49 +5315,49 @@
         <v>119</v>
       </c>
       <c r="B105">
-        <v>-1.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D105">
-        <v>41.5</v>
+        <v>50.6</v>
       </c>
       <c r="E105">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F105">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="G105">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H105">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I105">
-        <v>47.4</v>
+        <v>51.7</v>
       </c>
       <c r="J105">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="K105">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L105">
-        <v>49.4</v>
+        <v>51.1</v>
       </c>
       <c r="M105">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="N105">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O105">
-        <v>52.4</v>
+        <v>55.4</v>
       </c>
       <c r="P105">
-        <v>11</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5296,49 +5365,49 @@
         <v>120</v>
       </c>
       <c r="B106">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="C106">
         <v>3.4</v>
       </c>
       <c r="D106">
+        <v>52.5</v>
+      </c>
+      <c r="E106">
+        <v>1.7</v>
+      </c>
+      <c r="F106">
+        <v>51.5</v>
+      </c>
+      <c r="G106">
+        <v>5.4</v>
+      </c>
+      <c r="H106">
+        <v>-0.3</v>
+      </c>
+      <c r="I106">
+        <v>53.7</v>
+      </c>
+      <c r="J106">
+        <v>8.6</v>
+      </c>
+      <c r="K106">
+        <v>3.7</v>
+      </c>
+      <c r="L106">
         <v>48.9</v>
-      </c>
-      <c r="E106">
-        <v>2.7</v>
-      </c>
-      <c r="F106">
-        <v>51.1</v>
-      </c>
-      <c r="G106">
-        <v>5.7</v>
-      </c>
-      <c r="H106">
-        <v>0.4</v>
-      </c>
-      <c r="I106">
-        <v>51.8</v>
-      </c>
-      <c r="J106">
-        <v>8.4</v>
-      </c>
-      <c r="K106">
-        <v>3.4</v>
-      </c>
-      <c r="L106">
-        <v>48.4</v>
       </c>
       <c r="M106">
         <v>6.3</v>
       </c>
       <c r="N106">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O106">
-        <v>53.9</v>
+        <v>55.4</v>
       </c>
       <c r="P106">
-        <v>10.2</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5346,49 +5415,49 @@
         <v>121</v>
       </c>
       <c r="B107">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="C107">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D107">
-        <v>50.6</v>
+        <v>53.1</v>
       </c>
       <c r="E107">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="G107">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H107">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I107">
-        <v>51.7</v>
+        <v>54.8</v>
       </c>
       <c r="J107">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L107">
-        <v>51.1</v>
+        <v>46.9</v>
       </c>
       <c r="M107">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="N107">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O107">
-        <v>55.4</v>
+        <v>58.8</v>
       </c>
       <c r="P107">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5396,49 +5465,49 @@
         <v>122</v>
       </c>
       <c r="B108">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="C108">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D108">
-        <v>52.5</v>
+        <v>55.4</v>
       </c>
       <c r="E108">
-        <v>1.7</v>
+        <v>-0.5</v>
       </c>
       <c r="F108">
-        <v>51.5</v>
+        <v>52.1</v>
       </c>
       <c r="G108">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H108">
         <v>-0.3</v>
       </c>
       <c r="I108">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="J108">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K108">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L108">
-        <v>48.9</v>
+        <v>46.3</v>
       </c>
       <c r="M108">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="N108">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O108">
-        <v>55.4</v>
+        <v>57.3</v>
       </c>
       <c r="P108">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5446,49 +5515,49 @@
         <v>123</v>
       </c>
       <c r="B109">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="C109">
         <v>3.3</v>
       </c>
       <c r="D109">
-        <v>53.1</v>
+        <v>58.6</v>
       </c>
       <c r="E109">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F109">
-        <v>51.4</v>
+        <v>51.9</v>
       </c>
       <c r="G109">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H109">
         <v>-0.3</v>
       </c>
       <c r="I109">
-        <v>54.8</v>
+        <v>55.2</v>
       </c>
       <c r="J109">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K109">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L109">
-        <v>46.9</v>
+        <v>49.7</v>
       </c>
       <c r="M109">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="N109">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O109">
-        <v>58.8</v>
+        <v>60.5</v>
       </c>
       <c r="P109">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5496,49 +5565,46 @@
         <v>124</v>
       </c>
       <c r="B110">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="C110">
         <v>3.3</v>
       </c>
       <c r="D110">
-        <v>55.4</v>
+        <v>60.1</v>
       </c>
       <c r="E110">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F110">
-        <v>52.1</v>
-      </c>
-      <c r="G110">
+        <v>51.3</v>
+      </c>
+      <c r="H110">
+        <v>0.9</v>
+      </c>
+      <c r="I110">
+        <v>54.8</v>
+      </c>
+      <c r="J110">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K110">
         <v>5.2</v>
       </c>
-      <c r="H110">
-        <v>-0.3</v>
-      </c>
-      <c r="I110">
-        <v>53.8</v>
-      </c>
-      <c r="J110">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K110">
-        <v>4.4</v>
-      </c>
       <c r="L110">
-        <v>46.3</v>
+        <v>50.9</v>
       </c>
       <c r="M110">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="N110">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O110">
-        <v>57.3</v>
+        <v>59.4</v>
       </c>
       <c r="P110">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5546,49 +5612,49 @@
         <v>125</v>
       </c>
       <c r="B111">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="C111">
         <v>3.3</v>
       </c>
       <c r="D111">
-        <v>58.6</v>
+        <v>62</v>
       </c>
       <c r="E111">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="F111">
-        <v>51.9</v>
+        <v>50.6</v>
       </c>
       <c r="G111">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H111">
-        <v>-0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I111">
-        <v>55.2</v>
+        <v>57.9</v>
       </c>
       <c r="J111">
         <v>8.199999999999999</v>
       </c>
       <c r="K111">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L111">
-        <v>49.7</v>
+        <v>51.5</v>
       </c>
       <c r="M111">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="N111">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O111">
-        <v>60.5</v>
+        <v>60.9</v>
       </c>
       <c r="P111">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5596,46 +5662,49 @@
         <v>126</v>
       </c>
       <c r="B112">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C112">
         <v>3.3</v>
       </c>
       <c r="D112">
-        <v>60.1</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E112">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F112">
-        <v>51.3</v>
+        <v>51.9</v>
+      </c>
+      <c r="G112">
+        <v>5.3</v>
       </c>
       <c r="H112">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="I112">
-        <v>54.8</v>
+        <v>62.5</v>
       </c>
       <c r="J112">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K112">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L112">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="M112">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="N112">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O112">
-        <v>59.4</v>
+        <v>63.7</v>
       </c>
       <c r="P112">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5643,49 +5712,49 @@
         <v>127</v>
       </c>
       <c r="B113">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D113">
-        <v>62</v>
+        <v>68.3</v>
       </c>
       <c r="E113">
-        <v>-0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F113">
-        <v>50.6</v>
+        <v>51.1</v>
       </c>
       <c r="G113">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="H113">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="I113">
-        <v>57.9</v>
+        <v>62.9</v>
       </c>
       <c r="J113">
         <v>8.199999999999999</v>
       </c>
       <c r="K113">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L113">
-        <v>51.5</v>
+        <v>50.4</v>
       </c>
       <c r="M113">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="N113">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O113">
-        <v>60.9</v>
+        <v>60.6</v>
       </c>
       <c r="P113">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -5693,49 +5762,49 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C114">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D114">
-        <v>65.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E114">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="F114">
+        <v>51</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>63.1</v>
+      </c>
+      <c r="J114">
+        <v>8.1</v>
+      </c>
+      <c r="K114">
+        <v>6</v>
+      </c>
+      <c r="L114">
         <v>51.9</v>
       </c>
-      <c r="G114">
-        <v>5.3</v>
-      </c>
-      <c r="H114">
-        <v>1.3</v>
-      </c>
-      <c r="I114">
-        <v>62.5</v>
-      </c>
-      <c r="J114">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K114">
+      <c r="M114">
+        <v>4.9</v>
+      </c>
+      <c r="N114">
+        <v>0.7</v>
+      </c>
+      <c r="O114">
+        <v>61.6</v>
+      </c>
+      <c r="P114">
         <v>5.8</v>
-      </c>
-      <c r="L114">
-        <v>51.1</v>
-      </c>
-      <c r="M114">
-        <v>5.4</v>
-      </c>
-      <c r="N114">
-        <v>0.6</v>
-      </c>
-      <c r="O114">
-        <v>63.7</v>
-      </c>
-      <c r="P114">
-        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5743,49 +5812,49 @@
         <v>129</v>
       </c>
       <c r="B115">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D115">
-        <v>68.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E115">
+        <v>1.1</v>
+      </c>
+      <c r="F115">
+        <v>50.9</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>1.9</v>
+      </c>
+      <c r="I115">
+        <v>63.4</v>
+      </c>
+      <c r="J115">
+        <v>7.9</v>
+      </c>
+      <c r="K115">
+        <v>6.5</v>
+      </c>
+      <c r="L115">
+        <v>49.2</v>
+      </c>
+      <c r="M115">
+        <v>4.8</v>
+      </c>
+      <c r="N115">
         <v>0.9</v>
       </c>
-      <c r="F115">
-        <v>51.1</v>
-      </c>
-      <c r="G115">
-        <v>5.1</v>
-      </c>
-      <c r="H115">
-        <v>1.6</v>
-      </c>
-      <c r="I115">
-        <v>62.9</v>
-      </c>
-      <c r="J115">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K115">
-        <v>5.5</v>
-      </c>
-      <c r="L115">
-        <v>50.4</v>
-      </c>
-      <c r="M115">
-        <v>5.2</v>
-      </c>
-      <c r="N115">
-        <v>0.6</v>
-      </c>
       <c r="O115">
-        <v>60.6</v>
+        <v>60.9</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5793,49 +5862,49 @@
         <v>130</v>
       </c>
       <c r="B116">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>68.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="E116">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>51</v>
+        <v>50.4</v>
       </c>
       <c r="G116">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I116">
-        <v>63.1</v>
+        <v>62.8</v>
       </c>
       <c r="J116">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L116">
-        <v>51.9</v>
+        <v>47.5</v>
       </c>
       <c r="M116">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="N116">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O116">
-        <v>61.6</v>
+        <v>59.9</v>
       </c>
       <c r="P116">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5843,49 +5912,49 @@
         <v>131</v>
       </c>
       <c r="B117">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C117">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D117">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E117">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F117">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="G117">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H117">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>63.4</v>
+        <v>61.4</v>
       </c>
       <c r="J117">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="K117">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L117">
-        <v>49.2</v>
+        <v>46.5</v>
       </c>
       <c r="M117">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="N117">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="O117">
-        <v>60.9</v>
+        <v>59.7</v>
       </c>
       <c r="P117">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5893,49 +5962,49 @@
         <v>132</v>
       </c>
       <c r="B118">
+        <v>0.9</v>
+      </c>
+      <c r="C118">
+        <v>2.8</v>
+      </c>
+      <c r="D118">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E118">
         <v>0.7</v>
       </c>
-      <c r="C118">
-        <v>3</v>
-      </c>
-      <c r="D118">
-        <v>70</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
       <c r="F118">
-        <v>50.4</v>
+        <v>49.6</v>
       </c>
       <c r="G118">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H118">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="I118">
-        <v>62.8</v>
+        <v>58.6</v>
       </c>
       <c r="J118">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="K118">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="L118">
-        <v>47.5</v>
+        <v>49.8</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="N118">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O118">
-        <v>59.9</v>
+        <v>60.5</v>
       </c>
       <c r="P118">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5943,49 +6012,49 @@
         <v>133</v>
       </c>
       <c r="B119">
+        <v>1.2</v>
+      </c>
+      <c r="C119">
+        <v>2.7</v>
+      </c>
+      <c r="D119">
+        <v>65.7</v>
+      </c>
+      <c r="E119">
+        <v>1.5</v>
+      </c>
+      <c r="F119">
+        <v>49.2</v>
+      </c>
+      <c r="G119">
+        <v>4.9</v>
+      </c>
+      <c r="H119">
+        <v>4.1</v>
+      </c>
+      <c r="I119">
+        <v>58.3</v>
+      </c>
+      <c r="J119">
+        <v>7.2</v>
+      </c>
+      <c r="K119">
+        <v>8.1</v>
+      </c>
+      <c r="L119">
+        <v>51.6</v>
+      </c>
+      <c r="M119">
+        <v>4.3</v>
+      </c>
+      <c r="N119">
         <v>0.9</v>
       </c>
-      <c r="C119">
-        <v>2.9</v>
-      </c>
-      <c r="D119">
-        <v>67</v>
-      </c>
-      <c r="E119">
-        <v>0.8</v>
-      </c>
-      <c r="F119">
-        <v>50.1</v>
-      </c>
-      <c r="G119">
-        <v>5.1</v>
-      </c>
-      <c r="H119">
-        <v>3</v>
-      </c>
-      <c r="I119">
-        <v>61.4</v>
-      </c>
-      <c r="J119">
-        <v>7.5</v>
-      </c>
-      <c r="K119">
-        <v>6.7</v>
-      </c>
-      <c r="L119">
-        <v>46.5</v>
-      </c>
-      <c r="M119">
-        <v>4.4</v>
-      </c>
-      <c r="N119">
-        <v>0.3</v>
-      </c>
       <c r="O119">
-        <v>59.7</v>
+        <v>60.8</v>
       </c>
       <c r="P119">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5993,49 +6062,49 @@
         <v>134</v>
       </c>
       <c r="B120">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C120">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D120">
-        <v>67.59999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="E120">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="F120">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120">
         <v>4.9</v>
       </c>
-      <c r="H120">
-        <v>3.4</v>
-      </c>
       <c r="I120">
-        <v>58.6</v>
+        <v>58.4</v>
       </c>
       <c r="J120">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="K120">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="L120">
-        <v>49.8</v>
+        <v>51.7</v>
       </c>
       <c r="M120">
         <v>4.3</v>
       </c>
       <c r="N120">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="O120">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="P120">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6043,34 +6112,34 @@
         <v>135</v>
       </c>
       <c r="B121">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C121">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="D121">
-        <v>65.7</v>
+        <v>64.2</v>
       </c>
       <c r="E121">
         <v>1.5</v>
       </c>
       <c r="F121">
-        <v>49.2</v>
+        <v>50.3</v>
       </c>
       <c r="G121">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H121">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>58.3</v>
+        <v>58</v>
       </c>
       <c r="J121">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K121">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="L121">
         <v>51.6</v>
@@ -6079,119 +6148,16 @@
         <v>4.3</v>
       </c>
       <c r="N121">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O121">
-        <v>60.8</v>
+        <v>58.8</v>
       </c>
       <c r="P121">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B122">
-        <v>1.5</v>
-      </c>
-      <c r="C122">
-        <v>2.5</v>
-      </c>
-      <c r="D122">
-        <v>63.8</v>
-      </c>
-      <c r="E122">
-        <v>2.3</v>
-      </c>
-      <c r="F122">
-        <v>50.1</v>
-      </c>
-      <c r="G122">
-        <v>5</v>
-      </c>
-      <c r="H122">
-        <v>4.9</v>
-      </c>
-      <c r="I122">
-        <v>58.4</v>
-      </c>
-      <c r="J122">
-        <v>7.1</v>
-      </c>
-      <c r="K122">
-        <v>8.4</v>
-      </c>
-      <c r="L122">
-        <v>51.7</v>
-      </c>
-      <c r="M122">
-        <v>4.3</v>
-      </c>
-      <c r="N122">
-        <v>0.7</v>
-      </c>
-      <c r="O122">
-        <v>60.6</v>
-      </c>
-      <c r="P122">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123">
-        <v>1.5</v>
-      </c>
-      <c r="C123">
-        <v>2.4</v>
-      </c>
-      <c r="D123">
-        <v>64.2</v>
-      </c>
-      <c r="E123">
-        <v>1.5</v>
-      </c>
-      <c r="F123">
-        <v>50.3</v>
-      </c>
-      <c r="G123">
-        <v>5.1</v>
-      </c>
-      <c r="H123">
-        <v>5</v>
-      </c>
-      <c r="I123">
-        <v>58</v>
-      </c>
-      <c r="J123">
-        <v>7</v>
-      </c>
-      <c r="K123">
-        <v>8.4</v>
-      </c>
-      <c r="L123">
-        <v>51.6</v>
-      </c>
-      <c r="M123">
-        <v>4.3</v>
-      </c>
-      <c r="N123">
-        <v>0.6</v>
-      </c>
-      <c r="O123">
-        <v>58.8</v>
-      </c>
-      <c r="P123">
         <v>3.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:P1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Files/Macro_raw_pivot.xlsx
+++ b/Files/Macro_raw_pivot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>CHCPIY_ECI</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
   </si>
   <si>
     <t>2012-01-31</t>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -840,40 +843,40 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="C2">
         <v>2.8</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>49.2</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="F2">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="H2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J2">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="K2">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="M2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>54.2</v>
+        <v>53</v>
       </c>
       <c r="P2">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -881,37 +884,37 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="C3">
         <v>2.8</v>
       </c>
       <c r="D3">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="F3">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="H3">
         <v>2.7</v>
       </c>
       <c r="J3">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="K3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O3">
-        <v>53.3</v>
+        <v>54.2</v>
       </c>
       <c r="P3">
         <v>8.300000000000001</v>
@@ -922,40 +925,40 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="C4">
         <v>2.8</v>
       </c>
       <c r="D4">
-        <v>50.6</v>
+        <v>48.2</v>
       </c>
       <c r="E4">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="F4">
-        <v>53.1</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="K4">
         <v>3.7</v>
       </c>
       <c r="M4">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="N4">
         <v>0.2</v>
       </c>
       <c r="O4">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="P4">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -969,31 +972,31 @@
         <v>2.8</v>
       </c>
       <c r="D5">
-        <v>46.5</v>
+        <v>50.6</v>
       </c>
       <c r="E5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F5">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J5">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M5">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="N5">
         <v>0.2</v>
       </c>
       <c r="O5">
-        <v>55.2</v>
+        <v>53.5</v>
       </c>
       <c r="P5">
         <v>8.199999999999999</v>
@@ -1007,34 +1010,34 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>45.8</v>
+        <v>46.5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="F6">
-        <v>50.4</v>
+        <v>53.3</v>
       </c>
       <c r="H6">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="K6">
         <v>3.6</v>
       </c>
       <c r="M6">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="N6">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="O6">
-        <v>53.2</v>
+        <v>55.2</v>
       </c>
       <c r="P6">
         <v>8.199999999999999</v>
@@ -1045,37 +1048,37 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <v>2.9</v>
       </c>
       <c r="D7">
-        <v>47.9</v>
+        <v>45.8</v>
       </c>
       <c r="E7">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
       <c r="H7">
         <v>2.4</v>
       </c>
       <c r="J7">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="K7">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
         <v>5.2</v>
       </c>
       <c r="N7">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="O7">
-        <v>49.5</v>
+        <v>53.2</v>
       </c>
       <c r="P7">
         <v>8.199999999999999</v>
@@ -1086,19 +1089,19 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="C8">
         <v>2.9</v>
       </c>
       <c r="D8">
-        <v>46.6</v>
+        <v>47.9</v>
       </c>
       <c r="E8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F8">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="H8">
         <v>2.4</v>
@@ -1107,16 +1110,16 @@
         <v>11.5</v>
       </c>
       <c r="K8">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="M8">
         <v>5.2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O8">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="P8">
         <v>8.199999999999999</v>
@@ -1127,40 +1130,40 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="C9">
         <v>2.9</v>
       </c>
       <c r="D9">
-        <v>47.1</v>
+        <v>46.6</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F9">
-        <v>49.2</v>
+        <v>50.1</v>
       </c>
       <c r="H9">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J9">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K9">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>49</v>
+        <v>49.6</v>
       </c>
       <c r="P9">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1168,40 +1171,40 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>47.1</v>
       </c>
       <c r="E10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>49.8</v>
+        <v>49.2</v>
       </c>
       <c r="H10">
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="K10">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O10">
-        <v>50.8</v>
+        <v>49</v>
       </c>
       <c r="P10">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1209,37 +1212,37 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>47.1</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>50.2</v>
+        <v>49.8</v>
       </c>
       <c r="H11">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J11">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="K11">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M11">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O11">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="P11">
         <v>7.8</v>
@@ -1250,40 +1253,40 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>49.2</v>
+        <v>47.1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F12">
-        <v>50.6</v>
+        <v>50.2</v>
       </c>
       <c r="H12">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K12">
         <v>6.5</v>
       </c>
       <c r="M12">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="N12">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O12">
-        <v>48</v>
+        <v>50.5</v>
       </c>
       <c r="P12">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1297,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="E13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>50.6</v>
@@ -1312,19 +1315,19 @@
         <v>12</v>
       </c>
       <c r="K13">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M13">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="O13">
-        <v>50.1</v>
+        <v>48</v>
       </c>
       <c r="P13">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1332,40 +1335,40 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="C14">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>52.4</v>
+        <v>49.1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F14">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J14">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="N14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>53.3</v>
+        <v>50.1</v>
       </c>
       <c r="P14">
-        <v>8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1379,34 +1382,34 @@
         <v>3.1</v>
       </c>
       <c r="D15">
-        <v>49.9</v>
+        <v>52.4</v>
       </c>
       <c r="E15">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="H15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>12.2</v>
       </c>
       <c r="K15">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M15">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O15">
-        <v>54.2</v>
+        <v>53.3</v>
       </c>
       <c r="P15">
-        <v>7.7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1414,40 +1417,40 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="C16">
         <v>3.1</v>
       </c>
       <c r="D16">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="E16">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="F16">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="H16">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J16">
         <v>12.2</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="M16">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="N16">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O16">
-        <v>51.9</v>
+        <v>54.2</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1461,34 +1464,34 @@
         <v>3.1</v>
       </c>
       <c r="D17">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="E17">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F17">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="H17">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="J17">
         <v>12.2</v>
       </c>
       <c r="K17">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="N17">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O17">
-        <v>51</v>
+        <v>51.9</v>
       </c>
       <c r="P17">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1496,40 +1499,40 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="C18">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D18">
-        <v>52.4</v>
+        <v>49.4</v>
       </c>
       <c r="E18">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="F18">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="H18">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J18">
         <v>12.2</v>
       </c>
       <c r="K18">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M18">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="O18">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="P18">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1537,37 +1540,37 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C19">
         <v>3.2</v>
       </c>
       <c r="D19">
-        <v>51.5</v>
+        <v>52.4</v>
       </c>
       <c r="E19">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="F19">
-        <v>50.1</v>
+        <v>50.8</v>
       </c>
       <c r="H19">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J19">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K19">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M19">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="N19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>51.1</v>
+        <v>50.8</v>
       </c>
       <c r="P19">
         <v>7.5</v>
@@ -1578,19 +1581,19 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C20">
         <v>3.2</v>
       </c>
       <c r="D20">
-        <v>55.5</v>
+        <v>51.5</v>
       </c>
       <c r="E20">
         <v>2.7</v>
       </c>
       <c r="F20">
-        <v>50.3</v>
+        <v>50.1</v>
       </c>
       <c r="H20">
         <v>1.6</v>
@@ -1599,19 +1602,19 @@
         <v>12.1</v>
       </c>
       <c r="K20">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="M20">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N20">
         <v>0.2</v>
       </c>
       <c r="O20">
-        <v>53.8</v>
+        <v>51.1</v>
       </c>
       <c r="P20">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1628,13 +1631,13 @@
         <v>55.5</v>
       </c>
       <c r="E21">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="F21">
-        <v>51</v>
+        <v>50.3</v>
       </c>
       <c r="H21">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J21">
         <v>12.1</v>
@@ -1643,16 +1646,16 @@
         <v>6.5</v>
       </c>
       <c r="M21">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N21">
         <v>0.2</v>
       </c>
       <c r="O21">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="P21">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1660,37 +1663,37 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>3.2</v>
       </c>
       <c r="D22">
-        <v>56.5</v>
+        <v>55.5</v>
       </c>
       <c r="E22">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="F22">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="H22">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J22">
         <v>12.1</v>
       </c>
       <c r="K22">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="M22">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O22">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="P22">
         <v>7.2</v>
@@ -1701,34 +1704,34 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="C23">
         <v>3.2</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>56.5</v>
       </c>
       <c r="E23">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F23">
-        <v>51.4</v>
+        <v>51.1</v>
       </c>
       <c r="H23">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="K23">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M23">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="N23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>54.6</v>
@@ -1742,40 +1745,40 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C24">
         <v>3.2</v>
       </c>
       <c r="D24">
-        <v>57.2</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F24">
         <v>51.4</v>
       </c>
       <c r="H24">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
         <v>12</v>
       </c>
       <c r="K24">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M24">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O24">
-        <v>55.5</v>
+        <v>54.6</v>
       </c>
       <c r="P24">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1789,16 +1792,16 @@
         <v>3.2</v>
       </c>
       <c r="D25">
-        <v>53.7</v>
+        <v>57.2</v>
       </c>
       <c r="E25">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="H25">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J25">
         <v>12</v>
@@ -1807,16 +1810,16 @@
         <v>6.5</v>
       </c>
       <c r="M25">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O25">
-        <v>56.5</v>
+        <v>55.5</v>
       </c>
       <c r="P25">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1827,16 +1830,16 @@
         <v>0.1</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D26">
-        <v>56.3</v>
+        <v>53.7</v>
       </c>
       <c r="E26">
         <v>2.5</v>
       </c>
       <c r="F26">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="H26">
         <v>0.8</v>
@@ -1845,19 +1848,19 @@
         <v>12</v>
       </c>
       <c r="K26">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="M26">
         <v>5.6</v>
       </c>
       <c r="N26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O26">
-        <v>52.5</v>
+        <v>56.5</v>
       </c>
       <c r="P26">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1865,40 +1868,40 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="C27">
         <v>3.1</v>
       </c>
       <c r="D27">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F27">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="H27">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J27">
         <v>12</v>
       </c>
       <c r="K27">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M27">
         <v>5.6</v>
       </c>
       <c r="N27">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O27">
-        <v>55</v>
+        <v>52.5</v>
       </c>
       <c r="P27">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1906,37 +1909,37 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C28">
         <v>3.1</v>
       </c>
       <c r="D28">
-        <v>54.1</v>
+        <v>56.8</v>
       </c>
       <c r="E28">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J28">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="M28">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O28">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="P28">
         <v>6.7</v>
@@ -1950,37 +1953,37 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>54.1</v>
       </c>
       <c r="E29">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F29">
-        <v>50.4</v>
+        <v>50.3</v>
       </c>
       <c r="H29">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J29">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="K29">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="M29">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N29">
         <v>0.2</v>
       </c>
       <c r="O29">
-        <v>56.6</v>
+        <v>55.9</v>
       </c>
       <c r="P29">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1988,40 +1991,40 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>53.7</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="F30">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J30">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="K30">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="M30">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="N30">
         <v>0.2</v>
       </c>
       <c r="O30">
-        <v>55.7</v>
+        <v>56.6</v>
       </c>
       <c r="P30">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2029,40 +2032,40 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <v>53.9</v>
+        <v>53.7</v>
       </c>
       <c r="E31">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="F31">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="H31">
         <v>0.5</v>
       </c>
       <c r="J31">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="K31">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M31">
         <v>4.9</v>
       </c>
       <c r="N31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O31">
-        <v>55</v>
+        <v>55.7</v>
       </c>
       <c r="P31">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2076,22 +2079,22 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>53.7</v>
+        <v>53.9</v>
       </c>
       <c r="E32">
         <v>2.3</v>
       </c>
       <c r="F32">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="H32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
         <v>11.6</v>
       </c>
       <c r="K32">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="M32">
         <v>4.9</v>
@@ -2100,10 +2103,10 @@
         <v>0.1</v>
       </c>
       <c r="O32">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="P32">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2111,7 +2114,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2120,31 +2123,31 @@
         <v>53.7</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F33">
-        <v>51.1</v>
+        <v>51.7</v>
       </c>
       <c r="H33">
         <v>0.4</v>
       </c>
       <c r="J33">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K33">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M33">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O33">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="P33">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2152,40 +2155,40 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>51.7</v>
+        <v>53.7</v>
       </c>
       <c r="E34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>51.1</v>
       </c>
       <c r="H34">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J34">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K34">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="M34">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="P34">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2193,40 +2196,40 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>54.7</v>
+        <v>51.7</v>
       </c>
       <c r="E35">
         <v>1.6</v>
       </c>
       <c r="F35">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="H35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J35">
         <v>11.6</v>
       </c>
       <c r="K35">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="P35">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2234,40 +2237,40 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36">
-        <v>51.4</v>
+        <v>54.7</v>
       </c>
       <c r="E36">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F36">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="H36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J36">
         <v>11.6</v>
       </c>
       <c r="K36">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M36">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="N36">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="P36">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2275,40 +2278,40 @@
         <v>51</v>
       </c>
       <c r="B37">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>52.5</v>
+        <v>51.4</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F37">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="H37">
+        <v>0.3</v>
+      </c>
+      <c r="J37">
+        <v>11.6</v>
+      </c>
+      <c r="K37">
+        <v>9.1</v>
+      </c>
+      <c r="M37">
+        <v>5.2</v>
+      </c>
+      <c r="N37">
         <v>-0.2</v>
       </c>
-      <c r="J37">
-        <v>11.5</v>
-      </c>
-      <c r="K37">
-        <v>11.4</v>
-      </c>
-      <c r="M37">
-        <v>5.3</v>
-      </c>
-      <c r="N37">
-        <v>-0.3</v>
-      </c>
       <c r="O37">
-        <v>55.7</v>
+        <v>56.3</v>
       </c>
       <c r="P37">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2316,40 +2319,40 @@
         <v>52</v>
       </c>
       <c r="B38">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38">
-        <v>49.3</v>
+        <v>52.5</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F38">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="H38">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="J38">
+        <v>11.5</v>
+      </c>
+      <c r="K38">
         <v>11.4</v>
       </c>
-      <c r="K38">
-        <v>15</v>
-      </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="N38">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="O38">
-        <v>53.9</v>
+        <v>55.7</v>
       </c>
       <c r="P38">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2357,40 +2360,40 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>47.7</v>
+        <v>49.3</v>
       </c>
       <c r="E39">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="H39">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="J39">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="K39">
-        <v>16.7</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="O39">
-        <v>53</v>
+        <v>53.9</v>
       </c>
       <c r="P39">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2398,40 +2401,40 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="C40">
         <v>3.1</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="E40">
         <v>1.4</v>
       </c>
       <c r="F40">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="H40">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J40">
         <v>11.3</v>
       </c>
       <c r="K40">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="M40">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="N40">
         <v>0.3</v>
       </c>
       <c r="O40">
-        <v>52.1</v>
+        <v>53</v>
       </c>
       <c r="P40">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2439,7 +2442,7 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="C41">
         <v>3.1</v>
@@ -2448,28 +2451,28 @@
         <v>48</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F41">
         <v>50.1</v>
       </c>
       <c r="H41">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="J41">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="K41">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="M41">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O41">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="P41">
         <v>5.4</v>
@@ -2480,40 +2483,40 @@
         <v>56</v>
       </c>
       <c r="B42">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D42">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F42">
-        <v>50.2</v>
+        <v>50.1</v>
       </c>
       <c r="H42">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J42">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K42">
-        <v>15.8</v>
+        <v>16.4</v>
       </c>
       <c r="M42">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="N42">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O42">
-        <v>52.9</v>
+        <v>51.9</v>
       </c>
       <c r="P42">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2521,40 +2524,40 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="C43">
         <v>3.2</v>
       </c>
       <c r="D43">
-        <v>50.3</v>
+        <v>47.2</v>
       </c>
       <c r="E43">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F43">
         <v>50.2</v>
       </c>
       <c r="H43">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J43">
         <v>11.1</v>
       </c>
       <c r="K43">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="M43">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N43">
         <v>0.3</v>
       </c>
       <c r="O43">
-        <v>52.5</v>
+        <v>52.9</v>
       </c>
       <c r="P43">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2562,40 +2565,40 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="C44">
         <v>3.2</v>
       </c>
       <c r="D44">
-        <v>49.9</v>
+        <v>50.3</v>
       </c>
       <c r="E44">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="H44">
         <v>0.5</v>
       </c>
       <c r="J44">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="K44">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="M44">
+        <v>5.4</v>
+      </c>
+      <c r="N44">
+        <v>0.3</v>
+      </c>
+      <c r="O44">
+        <v>52.5</v>
+      </c>
+      <c r="P44">
         <v>5.3</v>
-      </c>
-      <c r="N44">
-        <v>0.2</v>
-      </c>
-      <c r="O44">
-        <v>52</v>
-      </c>
-      <c r="P44">
-        <v>5.2</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2603,40 +2606,40 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="C45">
         <v>3.2</v>
       </c>
       <c r="D45">
-        <v>51.2</v>
+        <v>49.9</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F45">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J45">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="K45">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="M45">
         <v>5.3</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O45">
-        <v>50.2</v>
+        <v>52</v>
       </c>
       <c r="P45">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2650,34 +2653,34 @@
         <v>3.2</v>
       </c>
       <c r="D46">
-        <v>48.2</v>
+        <v>51.2</v>
       </c>
       <c r="E46">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>49.8</v>
+        <v>49.7</v>
       </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J46">
         <v>10.7</v>
       </c>
       <c r="K46">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="M46">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N46">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="P46">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2691,31 +2694,31 @@
         <v>3.2</v>
       </c>
       <c r="D47">
-        <v>49.7</v>
+        <v>48.2</v>
       </c>
       <c r="E47">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F47">
         <v>49.8</v>
       </c>
       <c r="H47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J47">
         <v>10.7</v>
       </c>
       <c r="K47">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="M47">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="N47">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="O47">
-        <v>49.1</v>
+        <v>50.1</v>
       </c>
       <c r="P47">
         <v>5</v>
@@ -2729,28 +2732,28 @@
         <v>-1.4</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D48">
-        <v>48.5</v>
+        <v>49.7</v>
       </c>
       <c r="E48">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F48">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="H48">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J48">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="K48">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="M48">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="N48">
         <v>0.1</v>
@@ -2759,7 +2762,7 @@
         <v>49.1</v>
       </c>
       <c r="P48">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2767,40 +2770,40 @@
         <v>63</v>
       </c>
       <c r="B49">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="C49">
         <v>3.3</v>
       </c>
       <c r="D49">
-        <v>49.8</v>
+        <v>48.5</v>
       </c>
       <c r="E49">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F49">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="H49">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J49">
         <v>10.6</v>
       </c>
       <c r="K49">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="M49">
         <v>5.8</v>
       </c>
       <c r="N49">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="O49">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="P49">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2814,34 +2817,34 @@
         <v>3.3</v>
       </c>
       <c r="D50">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="E50">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="F50">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="H50">
         <v>0.3</v>
       </c>
       <c r="J50">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="K50">
-        <v>9.800000000000001</v>
+        <v>12.9</v>
       </c>
       <c r="M50">
         <v>5.8</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O50">
-        <v>47.6</v>
+        <v>48.7</v>
       </c>
       <c r="P50">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2849,40 +2852,40 @@
         <v>65</v>
       </c>
       <c r="B51">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="C51">
         <v>3.3</v>
       </c>
       <c r="D51">
-        <v>50.9</v>
+        <v>50.4</v>
       </c>
       <c r="E51">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="F51">
-        <v>49</v>
+        <v>49.4</v>
       </c>
       <c r="H51">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J51">
         <v>10.5</v>
       </c>
       <c r="K51">
-        <v>8.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M51">
         <v>5.8</v>
       </c>
       <c r="N51">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>49.2</v>
+        <v>47.6</v>
       </c>
       <c r="P51">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2890,40 +2893,40 @@
         <v>66</v>
       </c>
       <c r="B52">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="C52">
         <v>3.3</v>
       </c>
       <c r="D52">
-        <v>52.9</v>
+        <v>50.9</v>
       </c>
       <c r="E52">
         <v>2.3</v>
       </c>
       <c r="F52">
-        <v>50.2</v>
+        <v>49</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J52">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="K52">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="N52">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="O52">
-        <v>51</v>
+        <v>49.2</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -2931,22 +2934,22 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="C53">
         <v>3.3</v>
       </c>
       <c r="D53">
-        <v>53.7</v>
+        <v>52.9</v>
       </c>
       <c r="E53">
         <v>2.3</v>
       </c>
       <c r="F53">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="H53">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>10.3</v>
@@ -2955,16 +2958,16 @@
         <v>7.3</v>
       </c>
       <c r="M53">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="N53">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O53">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="P53">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2975,37 +2978,37 @@
         <v>-0.4</v>
       </c>
       <c r="C54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D54">
-        <v>56.1</v>
+        <v>53.7</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="F54">
         <v>50.1</v>
       </c>
       <c r="H54">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="J54">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="K54">
         <v>7.3</v>
       </c>
       <c r="M54">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="N54">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O54">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="P54">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3016,37 +3019,37 @@
         <v>-0.4</v>
       </c>
       <c r="C55">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D55">
-        <v>51.6</v>
+        <v>56.1</v>
       </c>
       <c r="E55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J55">
         <v>10.2</v>
       </c>
       <c r="K55">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="M55">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N55">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O55">
-        <v>52.2</v>
+        <v>51.4</v>
       </c>
       <c r="P55">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3054,40 +3057,40 @@
         <v>70</v>
       </c>
       <c r="B56">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="C56">
         <v>3.3</v>
       </c>
       <c r="D56">
-        <v>50.7</v>
+        <v>51.6</v>
       </c>
       <c r="E56">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F56">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="K56">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="M56">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N56">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O56">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="P56">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3095,40 +3098,40 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="C57">
         <v>3.3</v>
       </c>
       <c r="D57">
-        <v>51.8</v>
+        <v>50.7</v>
       </c>
       <c r="E57">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="F57">
-        <v>50.4</v>
+        <v>49.9</v>
       </c>
       <c r="H57">
         <v>0.2</v>
       </c>
       <c r="J57">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="M57">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N57">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="O57">
-        <v>49.8</v>
+        <v>52.7</v>
       </c>
       <c r="P57">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3136,40 +3139,40 @@
         <v>72</v>
       </c>
       <c r="B58">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C58">
         <v>3.3</v>
       </c>
       <c r="D58">
-        <v>54.9</v>
+        <v>51.8</v>
       </c>
       <c r="E58">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="F58">
         <v>50.4</v>
       </c>
       <c r="H58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J58">
         <v>9.9</v>
       </c>
       <c r="K58">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="M58">
         <v>5.2</v>
       </c>
       <c r="N58">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O58">
-        <v>51.1</v>
+        <v>49.8</v>
       </c>
       <c r="P58">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3183,34 +3186,34 @@
         <v>3.3</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="E59">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F59">
-        <v>51.2</v>
+        <v>50.4</v>
       </c>
       <c r="H59">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J59">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="K59">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="M59">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="N59">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O59">
-        <v>51.8</v>
+        <v>51.1</v>
       </c>
       <c r="P59">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3218,40 +3221,40 @@
         <v>74</v>
       </c>
       <c r="B60">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="C60">
         <v>3.3</v>
       </c>
       <c r="D60">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E60">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F60">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="H60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J60">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K60">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M60">
         <v>5.4</v>
       </c>
       <c r="N60">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O60">
-        <v>53.2</v>
+        <v>51.8</v>
       </c>
       <c r="P60">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3259,7 +3262,7 @@
         <v>75</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C61">
         <v>3.3</v>
@@ -3268,28 +3271,28 @@
         <v>55.3</v>
       </c>
       <c r="E61">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F61">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="H61">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="J61">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="K61">
+        <v>5.8</v>
+      </c>
+      <c r="M61">
         <v>5.4</v>
       </c>
-      <c r="M61">
-        <v>5.3</v>
-      </c>
       <c r="N61">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O61">
-        <v>54.4</v>
+        <v>53.2</v>
       </c>
       <c r="P61">
         <v>4.7</v>
@@ -3300,40 +3303,37 @@
         <v>76</v>
       </c>
       <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>3.3</v>
+      </c>
+      <c r="D62">
+        <v>55.3</v>
+      </c>
+      <c r="E62">
+        <v>2.1</v>
+      </c>
+      <c r="F62">
+        <v>51.4</v>
+      </c>
+      <c r="H62">
+        <v>1.1</v>
+      </c>
+      <c r="J62">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K62">
+        <v>5.4</v>
+      </c>
+      <c r="M62">
+        <v>5.3</v>
+      </c>
+      <c r="N62">
         <v>0.3</v>
       </c>
-      <c r="C62">
-        <v>3.2</v>
-      </c>
-      <c r="D62">
-        <v>54.9</v>
-      </c>
-      <c r="E62">
-        <v>2.5</v>
-      </c>
-      <c r="F62">
-        <v>51.3</v>
-      </c>
-      <c r="G62">
-        <v>5.2</v>
-      </c>
-      <c r="H62">
-        <v>1.7</v>
-      </c>
-      <c r="J62">
-        <v>9.6</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="M62">
-        <v>5.6</v>
-      </c>
-      <c r="N62">
-        <v>0.4</v>
-      </c>
       <c r="O62">
-        <v>55.7</v>
+        <v>54.4</v>
       </c>
       <c r="P62">
         <v>4.7</v>
@@ -3344,43 +3344,43 @@
         <v>77</v>
       </c>
       <c r="B63">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C63">
         <v>3.2</v>
       </c>
       <c r="D63">
-        <v>57.2</v>
+        <v>54.9</v>
       </c>
       <c r="E63">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="F63">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="G63">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J63">
         <v>9.6</v>
       </c>
       <c r="K63">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M63">
         <v>5.6</v>
       </c>
       <c r="N63">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O63">
-        <v>57.7</v>
+        <v>55.7</v>
       </c>
       <c r="P63">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3394,37 +3394,37 @@
         <v>3.2</v>
       </c>
       <c r="D64">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="E64">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F64">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="G64">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H64">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="K64">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="M64">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O64">
-        <v>56.5</v>
+        <v>57.7</v>
       </c>
       <c r="P64">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3432,40 +3432,40 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C65">
         <v>3.2</v>
       </c>
       <c r="D65">
-        <v>58.2</v>
+        <v>58.6</v>
       </c>
       <c r="E65">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F65">
-        <v>51.2</v>
+        <v>51.8</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H65">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="J65">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="K65">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="M65">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="N65">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>55.8</v>
+        <v>56.5</v>
       </c>
       <c r="P65">
         <v>4.4</v>
@@ -3476,25 +3476,25 @@
         <v>80</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C66">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D66">
-        <v>56.6</v>
+        <v>58.2</v>
       </c>
       <c r="E66">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F66">
         <v>51.2</v>
       </c>
       <c r="G66">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="J66">
         <v>9.300000000000001</v>
@@ -3503,13 +3503,13 @@
         <v>4.1</v>
       </c>
       <c r="M66">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N66">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="O66">
-        <v>56.4</v>
+        <v>55.8</v>
       </c>
       <c r="P66">
         <v>4.4</v>
@@ -3520,43 +3520,43 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C67">
         <v>3.1</v>
       </c>
       <c r="D67">
-        <v>60.5</v>
+        <v>56.6</v>
       </c>
       <c r="E67">
         <v>1.5</v>
       </c>
       <c r="F67">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="G67">
         <v>4.9</v>
       </c>
       <c r="H67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J67">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K67">
+        <v>4.1</v>
+      </c>
+      <c r="M67">
+        <v>5.2</v>
+      </c>
+      <c r="N67">
+        <v>-0.1</v>
+      </c>
+      <c r="O67">
+        <v>56.4</v>
+      </c>
+      <c r="P67">
         <v>4.4</v>
-      </c>
-      <c r="M67">
-        <v>5.1</v>
-      </c>
-      <c r="N67">
-        <v>0.1</v>
-      </c>
-      <c r="O67">
-        <v>56.2</v>
-      </c>
-      <c r="P67">
-        <v>4.3</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3564,22 +3564,22 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C68">
         <v>3.1</v>
       </c>
       <c r="D68">
-        <v>60.2</v>
+        <v>60.5</v>
       </c>
       <c r="E68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F68">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="G68">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H68">
         <v>1.3</v>
@@ -3588,16 +3588,16 @@
         <v>9.1</v>
       </c>
       <c r="K68">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="M68">
         <v>5.1</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O68">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
       <c r="P68">
         <v>4.3</v>
@@ -3608,40 +3608,43 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C69">
         <v>3.1</v>
       </c>
       <c r="D69">
-        <v>61.2</v>
+        <v>60.2</v>
       </c>
       <c r="E69">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="F69">
-        <v>51.7</v>
+        <v>51.4</v>
+      </c>
+      <c r="G69">
+        <v>5.1</v>
       </c>
       <c r="H69">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="K69">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="M69">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="N69">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>58.4</v>
+        <v>56.5</v>
       </c>
       <c r="P69">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3649,40 +3652,40 @@
         <v>84</v>
       </c>
       <c r="B70">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D70">
-        <v>62.4</v>
+        <v>61.2</v>
       </c>
       <c r="E70">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F70">
-        <v>52.4</v>
+        <v>51.7</v>
       </c>
       <c r="H70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J70">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N70">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O70">
-        <v>60</v>
+        <v>58.4</v>
       </c>
       <c r="P70">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3696,34 +3699,34 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>61.6</v>
+        <v>62.4</v>
       </c>
       <c r="E71">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="F71">
-        <v>51.6</v>
+        <v>52.4</v>
       </c>
       <c r="H71">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J71">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M71">
         <v>5</v>
       </c>
       <c r="N71">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O71">
-        <v>58.6</v>
+        <v>60</v>
       </c>
       <c r="P71">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -3731,37 +3734,37 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>64.09999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="E72">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F72">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="H72">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J72">
         <v>8.800000000000001</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M72">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O72">
-        <v>57.6</v>
+        <v>58.6</v>
       </c>
       <c r="P72">
         <v>4.2</v>
@@ -3775,25 +3778,22 @@
         <v>0.8</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>63.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E73">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F73">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="H73">
-        <v>1.3</v>
-      </c>
-      <c r="I73">
-        <v>60.6</v>
+        <v>1.5</v>
       </c>
       <c r="J73">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K73">
         <v>2.5</v>
@@ -3802,13 +3802,13 @@
         <v>5.1</v>
       </c>
       <c r="N73">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O73">
-        <v>59.7</v>
+        <v>57.6</v>
       </c>
       <c r="P73">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -3816,46 +3816,43 @@
         <v>88</v>
       </c>
       <c r="B74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C74">
         <v>2.9</v>
       </c>
       <c r="D74">
-        <v>65.09999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="E74">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F74">
-        <v>51.3</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
+        <v>51.6</v>
       </c>
       <c r="H74">
         <v>1.3</v>
       </c>
       <c r="I74">
-        <v>59.6</v>
+        <v>60.6</v>
       </c>
       <c r="J74">
         <v>8.699999999999999</v>
       </c>
       <c r="K74">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M74">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="N74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O74">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -3863,46 +3860,46 @@
         <v>89</v>
       </c>
       <c r="B75">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D75">
-        <v>64.09999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E75">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="F75">
-        <v>50.3</v>
+        <v>51.3</v>
       </c>
       <c r="G75">
         <v>5</v>
       </c>
       <c r="H75">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I75">
-        <v>58.6</v>
+        <v>59.6</v>
       </c>
       <c r="J75">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K75">
         <v>2.2</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O75">
-        <v>60.9</v>
+        <v>59.4</v>
       </c>
       <c r="P75">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -3910,46 +3907,46 @@
         <v>90</v>
       </c>
       <c r="B76">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D76">
-        <v>61.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E76">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="F76">
-        <v>51.5</v>
+        <v>50.3</v>
       </c>
       <c r="G76">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="I76">
-        <v>56.6</v>
+        <v>58.6</v>
       </c>
       <c r="J76">
         <v>8.6</v>
       </c>
       <c r="K76">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="M76">
         <v>5</v>
       </c>
       <c r="N76">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O76">
-        <v>58.8</v>
+        <v>60.9</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -3960,40 +3957,40 @@
         <v>0.8</v>
       </c>
       <c r="C77">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D77">
-        <v>63.6</v>
+        <v>61.5</v>
       </c>
       <c r="E77">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F77">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="G77">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H77">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I77">
-        <v>56.2</v>
+        <v>56.6</v>
       </c>
       <c r="J77">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="K77">
         <v>2.4</v>
       </c>
       <c r="M77">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N77">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O77">
-        <v>58.6</v>
+        <v>58.8</v>
       </c>
       <c r="P77">
         <v>4</v>
@@ -4004,46 +4001,46 @@
         <v>92</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C78">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D78">
-        <v>63.4</v>
+        <v>63.6</v>
       </c>
       <c r="E78">
         <v>1.8</v>
       </c>
       <c r="F78">
-        <v>51.9</v>
+        <v>51.4</v>
       </c>
       <c r="G78">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="I78">
-        <v>55.5</v>
+        <v>56.2</v>
       </c>
       <c r="J78">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K78">
         <v>2.4</v>
       </c>
       <c r="M78">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="N78">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O78">
-        <v>59</v>
+        <v>58.6</v>
       </c>
       <c r="P78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4051,19 +4048,19 @@
         <v>93</v>
       </c>
       <c r="B79">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>2.5</v>
       </c>
       <c r="D79">
-        <v>62.3</v>
+        <v>63.4</v>
       </c>
       <c r="E79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F79">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="G79">
         <v>4.8</v>
@@ -4072,25 +4069,25 @@
         <v>2</v>
       </c>
       <c r="I79">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="J79">
         <v>8.300000000000001</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M79">
         <v>4.7</v>
       </c>
       <c r="N79">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O79">
-        <v>59.9</v>
+        <v>59</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4098,34 +4095,34 @@
         <v>94</v>
       </c>
       <c r="B80">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C80">
         <v>2.5</v>
       </c>
       <c r="D80">
-        <v>62</v>
+        <v>62.3</v>
       </c>
       <c r="E80">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F80">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="G80">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H80">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="J80">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M80">
         <v>4.7</v>
@@ -4134,10 +4131,10 @@
         <v>0.1</v>
       </c>
       <c r="O80">
-        <v>58.1</v>
+        <v>59.9</v>
       </c>
       <c r="P80">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4151,37 +4148,37 @@
         <v>2.5</v>
       </c>
       <c r="D81">
-        <v>64.2</v>
+        <v>62</v>
       </c>
       <c r="E81">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F81">
-        <v>51.3</v>
+        <v>51.2</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H81">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I81">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="J81">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M81">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="N81">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O81">
-        <v>60.5</v>
+        <v>58.1</v>
       </c>
       <c r="P81">
         <v>3.8</v>
@@ -4192,46 +4189,46 @@
         <v>96</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C82">
         <v>2.5</v>
       </c>
       <c r="D82">
-        <v>60</v>
+        <v>64.2</v>
       </c>
       <c r="E82">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="F82">
-        <v>50.8</v>
+        <v>51.3</v>
       </c>
       <c r="G82">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H82">
         <v>2.1</v>
       </c>
       <c r="I82">
-        <v>53.2</v>
+        <v>54.6</v>
       </c>
       <c r="J82">
         <v>8</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M82">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="N82">
         <v>0.2</v>
       </c>
       <c r="O82">
-        <v>59.3</v>
+        <v>60.5</v>
       </c>
       <c r="P82">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4239,46 +4236,46 @@
         <v>97</v>
       </c>
       <c r="B83">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D83">
-        <v>57.7</v>
+        <v>60</v>
       </c>
       <c r="E83">
         <v>2.5</v>
       </c>
       <c r="F83">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="G83">
         <v>4.9</v>
       </c>
       <c r="H83">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I83">
-        <v>52</v>
+        <v>53.2</v>
       </c>
       <c r="J83">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M83">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
         <v>0.2</v>
       </c>
       <c r="O83">
-        <v>58.1</v>
+        <v>59.3</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4286,43 +4283,43 @@
         <v>98</v>
       </c>
       <c r="B84">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="C84">
         <v>2.4</v>
       </c>
       <c r="D84">
-        <v>57.1</v>
+        <v>57.7</v>
       </c>
       <c r="E84">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="F84">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="G84">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H84">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="I84">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="J84">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="K84">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="N84">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O84">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="P84">
         <v>3.8</v>
@@ -4333,46 +4330,46 @@
         <v>99</v>
       </c>
       <c r="B85">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C85">
         <v>2.4</v>
       </c>
       <c r="D85">
-        <v>56.4</v>
+        <v>57.1</v>
       </c>
       <c r="E85">
+        <v>2.2</v>
+      </c>
+      <c r="F85">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>4.8</v>
+      </c>
+      <c r="H85">
         <v>1.9</v>
       </c>
-      <c r="F85">
-        <v>49.4</v>
-      </c>
-      <c r="G85">
-        <v>4.9</v>
-      </c>
-      <c r="H85">
-        <v>1.5</v>
-      </c>
       <c r="I85">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="J85">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="K85">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
         <v>4.8</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O85">
-        <v>54.9</v>
+        <v>58.6</v>
       </c>
       <c r="P85">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4380,43 +4377,46 @@
         <v>100</v>
       </c>
       <c r="B86">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C86">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D86">
-        <v>54.6</v>
+        <v>56.4</v>
       </c>
       <c r="E86">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F86">
-        <v>49.5</v>
+        <v>49.4</v>
+      </c>
+      <c r="G86">
+        <v>4.9</v>
       </c>
       <c r="H86">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I86">
-        <v>50.5</v>
+        <v>51.4</v>
       </c>
       <c r="J86">
         <v>7.9</v>
       </c>
       <c r="K86">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M86">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>55.7</v>
+        <v>54.9</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4430,40 +4430,37 @@
         <v>2.3</v>
       </c>
       <c r="D87">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E87">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F87">
-        <v>49.2</v>
-      </c>
-      <c r="G87">
-        <v>5.3</v>
+        <v>49.5</v>
       </c>
       <c r="H87">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I87">
-        <v>49.3</v>
+        <v>50.5</v>
       </c>
       <c r="J87">
         <v>7.9</v>
       </c>
       <c r="K87">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M87">
         <v>4.9</v>
       </c>
       <c r="N87">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>54.4</v>
+        <v>55.7</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4471,43 +4468,43 @@
         <v>102</v>
       </c>
       <c r="B88">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C88">
         <v>2.3</v>
       </c>
       <c r="D88">
-        <v>50.5</v>
+        <v>54.5</v>
       </c>
       <c r="E88">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="F88">
-        <v>50.5</v>
+        <v>49.2</v>
       </c>
       <c r="G88">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H88">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I88">
-        <v>47.5</v>
+        <v>49.3</v>
       </c>
       <c r="J88">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="K88">
         <v>5.2</v>
       </c>
       <c r="M88">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="N88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O88">
-        <v>54.9</v>
+        <v>54.4</v>
       </c>
       <c r="P88">
         <v>3.8</v>
@@ -4524,22 +4521,22 @@
         <v>2.3</v>
       </c>
       <c r="D89">
-        <v>49.3</v>
+        <v>50.5</v>
       </c>
       <c r="E89">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="F89">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H89">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="I89">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="J89">
         <v>7.7</v>
@@ -4547,9 +4544,6 @@
       <c r="K89">
         <v>5.2</v>
       </c>
-      <c r="L89">
-        <v>51.8</v>
-      </c>
       <c r="M89">
         <v>4.7</v>
       </c>
@@ -4557,10 +4551,10 @@
         <v>0.4</v>
       </c>
       <c r="O89">
-        <v>53.6</v>
+        <v>54.9</v>
       </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4568,46 +4562,46 @@
         <v>104</v>
       </c>
       <c r="B90">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C90">
         <v>2.3</v>
       </c>
       <c r="D90">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="E90">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F90">
-        <v>49.4</v>
+        <v>50.1</v>
       </c>
       <c r="G90">
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="I90">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="J90">
         <v>7.7</v>
       </c>
       <c r="K90">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L90">
-        <v>49.8</v>
+        <v>51.8</v>
       </c>
       <c r="M90">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="N90">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O90">
-        <v>52.6</v>
+        <v>53.6</v>
       </c>
       <c r="P90">
         <v>3.6</v>
@@ -4624,7 +4618,7 @@
         <v>2.3</v>
       </c>
       <c r="D91">
-        <v>48.2</v>
+        <v>49.1</v>
       </c>
       <c r="E91">
         <v>2.7</v>
@@ -4633,31 +4627,31 @@
         <v>49.4</v>
       </c>
       <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>1.2</v>
+      </c>
+      <c r="I91">
+        <v>47.7</v>
+      </c>
+      <c r="J91">
+        <v>7.7</v>
+      </c>
+      <c r="K91">
         <v>5.1</v>
       </c>
-      <c r="H91">
-        <v>1.3</v>
-      </c>
-      <c r="I91">
-        <v>47.6</v>
-      </c>
-      <c r="J91">
-        <v>7.6</v>
-      </c>
-      <c r="K91">
-        <v>4.7</v>
-      </c>
       <c r="L91">
-        <v>48.6</v>
+        <v>49.8</v>
       </c>
       <c r="M91">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O91">
-        <v>51.5</v>
+        <v>52.6</v>
       </c>
       <c r="P91">
         <v>3.6</v>
@@ -4668,49 +4662,49 @@
         <v>106</v>
       </c>
       <c r="B92">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C92">
         <v>2.3</v>
       </c>
       <c r="D92">
-        <v>45</v>
+        <v>48.2</v>
       </c>
       <c r="E92">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F92">
-        <v>49.7</v>
+        <v>49.4</v>
       </c>
       <c r="G92">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="I92">
-        <v>46.5</v>
+        <v>47.6</v>
       </c>
       <c r="J92">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="K92">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L92">
-        <v>49.3</v>
+        <v>48.6</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="N92">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="P92">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4724,40 +4718,40 @@
         <v>2.3</v>
       </c>
       <c r="D93">
-        <v>46.5</v>
+        <v>45</v>
       </c>
       <c r="E93">
         <v>2.8</v>
       </c>
       <c r="F93">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="G93">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="J93">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K93">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L93">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="M93">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O93">
-        <v>48.5</v>
+        <v>51</v>
       </c>
       <c r="P93">
         <v>3.7</v>
@@ -4768,49 +4762,49 @@
         <v>108</v>
       </c>
       <c r="B94">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C94">
         <v>2.3</v>
       </c>
       <c r="D94">
-        <v>44.5</v>
+        <v>46.5</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="F94">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="G94">
         <v>5.2</v>
       </c>
       <c r="H94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>45.7</v>
+        <v>47</v>
       </c>
       <c r="J94">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L94">
-        <v>46.3</v>
+        <v>49.1</v>
       </c>
       <c r="M94">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="N94">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O94">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4818,49 +4812,49 @@
         <v>109</v>
       </c>
       <c r="B95">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C95">
         <v>2.3</v>
       </c>
       <c r="D95">
-        <v>49.5</v>
+        <v>44.5</v>
       </c>
       <c r="E95">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>49.3</v>
+        <v>49.8</v>
       </c>
       <c r="G95">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I95">
-        <v>45.9</v>
+        <v>45.7</v>
       </c>
       <c r="J95">
         <v>7.5</v>
       </c>
       <c r="K95">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L95">
-        <v>47.2</v>
+        <v>46.3</v>
       </c>
       <c r="M95">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O95">
         <v>48.1</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4868,43 +4862,43 @@
         <v>110</v>
       </c>
       <c r="B96">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C96">
         <v>2.3</v>
       </c>
       <c r="D96">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="E96">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="F96">
-        <v>50.2</v>
+        <v>49.3</v>
       </c>
       <c r="G96">
         <v>5.1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I96">
-        <v>46.9</v>
+        <v>45.9</v>
       </c>
       <c r="J96">
         <v>7.5</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L96">
-        <v>45.6</v>
+        <v>47.2</v>
       </c>
       <c r="M96">
         <v>4.6</v>
       </c>
       <c r="N96">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O96">
         <v>48.1</v>
@@ -4918,13 +4912,13 @@
         <v>111</v>
       </c>
       <c r="B97">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="C97">
         <v>2.3</v>
       </c>
       <c r="D97">
-        <v>49.2</v>
+        <v>48.5</v>
       </c>
       <c r="E97">
         <v>4.5</v>
@@ -4933,22 +4927,22 @@
         <v>50.2</v>
       </c>
       <c r="G97">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H97">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>46.3</v>
+        <v>46.9</v>
       </c>
       <c r="J97">
         <v>7.5</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L97">
-        <v>47.5</v>
+        <v>45.6</v>
       </c>
       <c r="M97">
         <v>4.6</v>
@@ -4957,7 +4951,7 @@
         <v>0.2</v>
       </c>
       <c r="O97">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="P97">
         <v>3.6</v>
@@ -4974,40 +4968,43 @@
         <v>2.3</v>
       </c>
       <c r="D98">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="E98">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="F98">
-        <v>50</v>
+        <v>50.2</v>
+      </c>
+      <c r="G98">
+        <v>5.2</v>
       </c>
       <c r="H98">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I98">
-        <v>47.9</v>
+        <v>46.3</v>
       </c>
       <c r="J98">
         <v>7.5</v>
       </c>
       <c r="K98">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="M98">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N98">
         <v>0.2</v>
       </c>
       <c r="O98">
-        <v>51.4</v>
+        <v>47.9</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5015,46 +5012,43 @@
         <v>113</v>
       </c>
       <c r="B99">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C99">
         <v>2.3</v>
       </c>
       <c r="D99">
-        <v>49.7</v>
+        <v>48.5</v>
       </c>
       <c r="E99">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F99">
-        <v>35.7</v>
-      </c>
-      <c r="G99">
-        <v>6.2</v>
+        <v>50</v>
       </c>
       <c r="H99">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I99">
-        <v>49.2</v>
+        <v>47.9</v>
       </c>
       <c r="J99">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L99">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="M99">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="N99">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O99">
-        <v>50.3</v>
+        <v>51.4</v>
       </c>
       <c r="P99">
         <v>3.5</v>
@@ -5065,49 +5059,49 @@
         <v>114</v>
       </c>
       <c r="B100">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C100">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="D100">
-        <v>43.2</v>
+        <v>49.7</v>
       </c>
       <c r="E100">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="F100">
-        <v>52</v>
+        <v>35.7</v>
       </c>
       <c r="G100">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="H100">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="I100">
-        <v>44.5</v>
+        <v>49.2</v>
       </c>
       <c r="J100">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K100">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="M100">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="N100">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O100">
-        <v>49.1</v>
+        <v>50.3</v>
       </c>
       <c r="P100">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5115,49 +5109,49 @@
         <v>115</v>
       </c>
       <c r="B101">
-        <v>-1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C101">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D101">
-        <v>40.7</v>
+        <v>43.2</v>
       </c>
       <c r="E101">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="F101">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H101">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I101">
-        <v>33.4</v>
+        <v>44.5</v>
       </c>
       <c r="J101">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K101">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
-        <v>31.3</v>
+        <v>47.5</v>
       </c>
       <c r="M101">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="N101">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="O101">
-        <v>41.6</v>
+        <v>49.1</v>
       </c>
       <c r="P101">
-        <v>14.7</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5165,49 +5159,49 @@
         <v>116</v>
       </c>
       <c r="B102">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="C102">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D102">
-        <v>42</v>
+        <v>40.7</v>
       </c>
       <c r="E102">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="F102">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="G102">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H102">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I102">
-        <v>39.4</v>
+        <v>33.4</v>
       </c>
       <c r="J102">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L102">
-        <v>36.2</v>
+        <v>31.3</v>
       </c>
       <c r="M102">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="N102">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O102">
-        <v>43.5</v>
+        <v>41.6</v>
       </c>
       <c r="P102">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5221,43 +5215,43 @@
         <v>3.5</v>
       </c>
       <c r="D103">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="E103">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F103">
-        <v>50.9</v>
+        <v>50.6</v>
       </c>
       <c r="G103">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H103">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I103">
-        <v>47.4</v>
+        <v>39.4</v>
       </c>
       <c r="J103">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="K103">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>49.4</v>
+        <v>36.2</v>
       </c>
       <c r="M103">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="N103">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="O103">
-        <v>52.4</v>
+        <v>43.5</v>
       </c>
       <c r="P103">
-        <v>11</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5265,49 +5259,49 @@
         <v>118</v>
       </c>
       <c r="B104">
-        <v>-0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="C104">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D104">
-        <v>48.9</v>
+        <v>41.5</v>
       </c>
       <c r="E104">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F104">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="G104">
         <v>5.7</v>
       </c>
       <c r="H104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I104">
-        <v>51.8</v>
+        <v>47.4</v>
       </c>
       <c r="J104">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="K104">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L104">
-        <v>48.4</v>
+        <v>49.4</v>
       </c>
       <c r="M104">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="N104">
         <v>0.5</v>
       </c>
       <c r="O104">
-        <v>53.9</v>
+        <v>52.4</v>
       </c>
       <c r="P104">
-        <v>10.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5321,43 +5315,43 @@
         <v>3.4</v>
       </c>
       <c r="D105">
-        <v>50.6</v>
+        <v>48.9</v>
       </c>
       <c r="E105">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F105">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="G105">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H105">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="J105">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K105">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L105">
-        <v>51.1</v>
+        <v>48.4</v>
       </c>
       <c r="M105">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="N105">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O105">
-        <v>55.4</v>
+        <v>53.9</v>
       </c>
       <c r="P105">
-        <v>8.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5365,49 +5359,49 @@
         <v>120</v>
       </c>
       <c r="B106">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="C106">
         <v>3.4</v>
       </c>
       <c r="D106">
-        <v>52.5</v>
+        <v>50.6</v>
       </c>
       <c r="E106">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="F106">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="G106">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H106">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="I106">
-        <v>53.7</v>
+        <v>51.7</v>
       </c>
       <c r="J106">
         <v>8.6</v>
       </c>
       <c r="K106">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>48.9</v>
+        <v>51.1</v>
       </c>
       <c r="M106">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="N106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="O106">
         <v>55.4</v>
       </c>
       <c r="P106">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5415,49 +5409,49 @@
         <v>121</v>
       </c>
       <c r="B107">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="C107">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D107">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="E107">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="F107">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="G107">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H107">
         <v>-0.3</v>
       </c>
       <c r="I107">
-        <v>54.8</v>
+        <v>53.7</v>
       </c>
       <c r="J107">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K107">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L107">
-        <v>46.9</v>
+        <v>48.9</v>
       </c>
       <c r="M107">
         <v>6.3</v>
       </c>
       <c r="N107">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O107">
-        <v>58.8</v>
+        <v>55.4</v>
       </c>
       <c r="P107">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5465,49 +5459,49 @@
         <v>122</v>
       </c>
       <c r="B108">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="C108">
         <v>3.3</v>
       </c>
       <c r="D108">
-        <v>55.4</v>
+        <v>53.1</v>
       </c>
       <c r="E108">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F108">
-        <v>52.1</v>
+        <v>51.4</v>
       </c>
       <c r="G108">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H108">
         <v>-0.3</v>
       </c>
       <c r="I108">
-        <v>53.8</v>
+        <v>54.8</v>
       </c>
       <c r="J108">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K108">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>46.3</v>
+        <v>46.9</v>
       </c>
       <c r="M108">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="N108">
         <v>0.1</v>
       </c>
       <c r="O108">
-        <v>57.3</v>
+        <v>58.8</v>
       </c>
       <c r="P108">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5515,19 +5509,19 @@
         <v>123</v>
       </c>
       <c r="B109">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="C109">
         <v>3.3</v>
       </c>
       <c r="D109">
-        <v>58.6</v>
+        <v>55.4</v>
       </c>
       <c r="E109">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F109">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="G109">
         <v>5.2</v>
@@ -5536,25 +5530,25 @@
         <v>-0.3</v>
       </c>
       <c r="I109">
-        <v>55.2</v>
+        <v>53.8</v>
       </c>
       <c r="J109">
         <v>8.199999999999999</v>
       </c>
       <c r="K109">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L109">
-        <v>49.7</v>
+        <v>46.3</v>
       </c>
       <c r="M109">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="N109">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O109">
-        <v>60.5</v>
+        <v>57.3</v>
       </c>
       <c r="P109">
         <v>6.7</v>
@@ -5565,46 +5559,49 @@
         <v>124</v>
       </c>
       <c r="B110">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="C110">
         <v>3.3</v>
       </c>
       <c r="D110">
-        <v>60.1</v>
+        <v>58.6</v>
       </c>
       <c r="E110">
+        <v>0.2</v>
+      </c>
+      <c r="F110">
+        <v>51.9</v>
+      </c>
+      <c r="G110">
+        <v>5.2</v>
+      </c>
+      <c r="H110">
         <v>-0.3</v>
       </c>
-      <c r="F110">
-        <v>51.3</v>
-      </c>
-      <c r="H110">
-        <v>0.9</v>
-      </c>
       <c r="I110">
-        <v>54.8</v>
+        <v>55.2</v>
       </c>
       <c r="J110">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K110">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L110">
-        <v>50.9</v>
+        <v>49.7</v>
       </c>
       <c r="M110">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="N110">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O110">
-        <v>59.4</v>
+        <v>60.5</v>
       </c>
       <c r="P110">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5618,43 +5615,40 @@
         <v>3.3</v>
       </c>
       <c r="D111">
-        <v>62</v>
+        <v>60.1</v>
       </c>
       <c r="E111">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F111">
-        <v>50.6</v>
-      </c>
-      <c r="G111">
-        <v>5.5</v>
+        <v>51.3</v>
       </c>
       <c r="H111">
         <v>0.9</v>
       </c>
       <c r="I111">
-        <v>57.9</v>
+        <v>54.8</v>
       </c>
       <c r="J111">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K111">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L111">
-        <v>51.5</v>
+        <v>50.9</v>
       </c>
       <c r="M111">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="N111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O111">
-        <v>60.9</v>
+        <v>59.4</v>
       </c>
       <c r="P111">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5662,49 +5656,49 @@
         <v>126</v>
       </c>
       <c r="B112">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C112">
         <v>3.3</v>
       </c>
       <c r="D112">
-        <v>65.59999999999999</v>
+        <v>62</v>
       </c>
       <c r="E112">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="F112">
-        <v>51.9</v>
+        <v>50.6</v>
       </c>
       <c r="G112">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H112">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="I112">
-        <v>62.5</v>
+        <v>57.9</v>
       </c>
       <c r="J112">
         <v>8.199999999999999</v>
       </c>
       <c r="K112">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L112">
-        <v>51.1</v>
+        <v>51.5</v>
       </c>
       <c r="M112">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="N112">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O112">
-        <v>63.7</v>
+        <v>60.9</v>
       </c>
       <c r="P112">
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5712,46 +5706,46 @@
         <v>127</v>
       </c>
       <c r="B113">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="C113">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D113">
-        <v>68.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E113">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F113">
-        <v>51.1</v>
+        <v>51.9</v>
       </c>
       <c r="G113">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H113">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="I113">
-        <v>62.9</v>
+        <v>62.5</v>
       </c>
       <c r="J113">
         <v>8.199999999999999</v>
       </c>
       <c r="K113">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L113">
-        <v>50.4</v>
+        <v>51.1</v>
       </c>
       <c r="M113">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="N113">
         <v>0.6</v>
       </c>
       <c r="O113">
-        <v>60.6</v>
+        <v>63.7</v>
       </c>
       <c r="P113">
         <v>6</v>
@@ -5762,49 +5756,49 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C114">
         <v>3.2</v>
       </c>
       <c r="D114">
-        <v>68.59999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="E114">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="F114">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="G114">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I114">
-        <v>63.1</v>
+        <v>62.9</v>
       </c>
       <c r="J114">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K114">
+        <v>5.5</v>
+      </c>
+      <c r="L114">
+        <v>50.4</v>
+      </c>
+      <c r="M114">
+        <v>5.2</v>
+      </c>
+      <c r="N114">
+        <v>0.6</v>
+      </c>
+      <c r="O114">
+        <v>60.6</v>
+      </c>
+      <c r="P114">
         <v>6</v>
-      </c>
-      <c r="L114">
-        <v>51.9</v>
-      </c>
-      <c r="M114">
-        <v>4.9</v>
-      </c>
-      <c r="N114">
-        <v>0.7</v>
-      </c>
-      <c r="O114">
-        <v>61.6</v>
-      </c>
-      <c r="P114">
-        <v>5.8</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5815,46 +5809,46 @@
         <v>0.6</v>
       </c>
       <c r="C115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D115">
-        <v>67.09999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E115">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="F115">
-        <v>50.9</v>
+        <v>51</v>
       </c>
       <c r="G115">
         <v>5</v>
       </c>
       <c r="H115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>63.4</v>
+        <v>63.1</v>
       </c>
       <c r="J115">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="K115">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L115">
-        <v>49.2</v>
+        <v>51.9</v>
       </c>
       <c r="M115">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="N115">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O115">
-        <v>60.9</v>
+        <v>61.6</v>
       </c>
       <c r="P115">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5862,49 +5856,49 @@
         <v>130</v>
       </c>
       <c r="B116">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D116">
-        <v>70</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F116">
-        <v>50.4</v>
+        <v>50.9</v>
       </c>
       <c r="G116">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H116">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="I116">
-        <v>62.8</v>
+        <v>63.4</v>
       </c>
       <c r="J116">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="K116">
         <v>6.5</v>
       </c>
       <c r="L116">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="M116">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="N116">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O116">
-        <v>59.9</v>
+        <v>60.9</v>
       </c>
       <c r="P116">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5912,49 +5906,49 @@
         <v>131</v>
       </c>
       <c r="B117">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C117">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E117">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="G117">
         <v>5.1</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I117">
-        <v>61.4</v>
+        <v>62.8</v>
       </c>
       <c r="J117">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="K117">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="L117">
-        <v>46.5</v>
+        <v>47.5</v>
       </c>
       <c r="M117">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N117">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O117">
-        <v>59.7</v>
+        <v>59.9</v>
       </c>
       <c r="P117">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5965,46 +5959,46 @@
         <v>0.9</v>
       </c>
       <c r="C118">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D118">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="E118">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F118">
-        <v>49.6</v>
+        <v>50.1</v>
       </c>
       <c r="G118">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H118">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>58.6</v>
+        <v>61.4</v>
       </c>
       <c r="J118">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="K118">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="L118">
-        <v>49.8</v>
+        <v>46.5</v>
       </c>
       <c r="M118">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="N118">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O118">
-        <v>60.5</v>
+        <v>59.7</v>
       </c>
       <c r="P118">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6012,49 +6006,49 @@
         <v>133</v>
       </c>
       <c r="B119">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="C119">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D119">
-        <v>65.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E119">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F119">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="G119">
         <v>4.9</v>
       </c>
       <c r="H119">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I119">
-        <v>58.3</v>
+        <v>58.6</v>
       </c>
       <c r="J119">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="K119">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="L119">
-        <v>51.6</v>
+        <v>49.8</v>
       </c>
       <c r="M119">
         <v>4.3</v>
       </c>
       <c r="N119">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O119">
-        <v>60.8</v>
+        <v>60.5</v>
       </c>
       <c r="P119">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6062,49 +6056,49 @@
         <v>134</v>
       </c>
       <c r="B120">
+        <v>1.2</v>
+      </c>
+      <c r="C120">
+        <v>2.7</v>
+      </c>
+      <c r="D120">
+        <v>65.7</v>
+      </c>
+      <c r="E120">
         <v>1.5</v>
       </c>
-      <c r="C120">
-        <v>2.5</v>
-      </c>
-      <c r="D120">
-        <v>63.8</v>
-      </c>
-      <c r="E120">
-        <v>2.3</v>
-      </c>
       <c r="F120">
-        <v>50.1</v>
+        <v>49.2</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H120">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="I120">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="J120">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="K120">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="L120">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="M120">
         <v>4.3</v>
       </c>
       <c r="N120">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O120">
-        <v>60.6</v>
+        <v>60.8</v>
       </c>
       <c r="P120">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6115,45 +6109,95 @@
         <v>1.5</v>
       </c>
       <c r="C121">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="D121">
-        <v>64.2</v>
+        <v>63.8</v>
       </c>
       <c r="E121">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="F121">
-        <v>50.3</v>
+        <v>50.1</v>
       </c>
       <c r="G121">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I121">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="J121">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="K121">
         <v>8.4</v>
       </c>
       <c r="L121">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="M121">
         <v>4.3</v>
       </c>
       <c r="N121">
+        <v>0.7</v>
+      </c>
+      <c r="O121">
+        <v>60.6</v>
+      </c>
+      <c r="P121">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122">
+        <v>1.5</v>
+      </c>
+      <c r="C122">
+        <v>2.4</v>
+      </c>
+      <c r="D122">
+        <v>64.2</v>
+      </c>
+      <c r="E122">
+        <v>1.5</v>
+      </c>
+      <c r="F122">
+        <v>50.3</v>
+      </c>
+      <c r="G122">
+        <v>5.1</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="I122">
+        <v>58</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>8.4</v>
+      </c>
+      <c r="L122">
+        <v>51.6</v>
+      </c>
+      <c r="M122">
+        <v>4.3</v>
+      </c>
+      <c r="N122">
         <v>0.6</v>
       </c>
-      <c r="O121">
+      <c r="O122">
         <v>58.8</v>
       </c>
-      <c r="P121">
+      <c r="P122">
         <v>3.9</v>
       </c>
     </row>
